--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_10_34.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_10_34.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2934851.889970034</v>
+        <v>3043494.051272847</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12443012.75936921</v>
+        <v>12383593.4843585</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283183</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8518098.207658339</v>
+        <v>8523591.853646755</v>
       </c>
     </row>
     <row r="11">
@@ -656,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -677,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
         <v>206.6581849802338</v>
@@ -719,10 +721,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>343.9653203971931</v>
+        <v>169.0477797924967</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -756,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,16 +816,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -832,10 +834,10 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>82.05193288677242</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>220.7486959972119</v>
@@ -874,16 +876,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>57.80383257690615</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -914,7 +916,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,19 +949,19 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>148.8731296508871</v>
       </c>
       <c r="U5" t="n">
-        <v>176.6319604698277</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -993,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1051,16 +1053,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -1072,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>194.6624603617375</v>
@@ -1108,13 +1110,13 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>87.88204051520221</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>105.1317223458561</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1133,25 +1135,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>90.05997032600033</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>111.1511571747011</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1224,13 +1226,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>134.9994691657081</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247745</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,16 +1259,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098488</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T9" t="n">
-        <v>190.7165703189231</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U9" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1288,13 +1290,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>62.26702939509356</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>102.9996081158924</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1306,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1336,25 +1338,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004734</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1373,19 +1375,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206831</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695537</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576162</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1534,19 +1536,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>112.6849016609948</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1594,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>34.56584948763727</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1616,13 +1618,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695535</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576162</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1762,19 +1764,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>101.5168569947387</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1783,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1822,7 +1824,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1831,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>146.4649598217087</v>
       </c>
     </row>
     <row r="17">
@@ -1892,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1907,7 +1909,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1999,13 +2001,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -2014,13 +2016,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>19.91555826189057</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2068,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>113.4877306469558</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2236,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2245,19 +2247,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>58.24570521548731</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2296,13 +2298,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>227.5492438149776</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2479,22 +2481,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>19.91555826189102</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2530,7 +2532,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>2.268486125805721</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2618,7 +2620,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784694</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2713,25 +2715,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2767,7 +2769,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>248.7909999669016</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2776,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2950,7 +2952,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -2959,13 +2961,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>91.40260836685113</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856552</v>
@@ -2995,19 +2997,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>25.73194049497408</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3044,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3202,7 +3204,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>41.02686156550273</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>107.4021082756243</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3278,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187874</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3317,7 +3319,7 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3427,7 +3429,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>139.483705355054</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -3439,7 +3441,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3472,7 +3474,7 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3481,10 +3483,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>208.2078751493925</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3664,7 +3666,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>101.3999237630431</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -3673,13 +3675,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3715,10 +3717,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>99.6514066310757</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3727,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3743,13 +3745,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206816</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417123</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>409.8033385187866</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3895,25 +3897,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>37.41782514684174</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>26.05480806223588</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3992,7 +3994,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4132,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -4150,7 +4152,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,25 +4182,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>185.2536037687262</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>191.9440058362632</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4304,31 +4306,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1632.688211171978</v>
+        <v>1671.539306344595</v>
       </c>
       <c r="C2" t="n">
-        <v>1263.725694231566</v>
+        <v>1302.576789404184</v>
       </c>
       <c r="D2" t="n">
-        <v>1263.725694231566</v>
+        <v>944.3110907974333</v>
       </c>
       <c r="E2" t="n">
-        <v>877.9374416333219</v>
+        <v>944.3110907974333</v>
       </c>
       <c r="F2" t="n">
-        <v>466.9515368437143</v>
+        <v>533.3251860078258</v>
       </c>
       <c r="G2" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H2" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
         <v>442.5171852816084</v>
@@ -4346,34 +4348,34 @@
         <v>2055.22848474084</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q2" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R2" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926627</v>
       </c>
       <c r="T2" t="n">
-        <v>2353.59368700598</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U2" t="n">
-        <v>2353.59368700598</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="V2" t="n">
-        <v>2353.59368700598</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="W2" t="n">
-        <v>2006.153969433058</v>
+        <v>2058.139146408717</v>
       </c>
       <c r="X2" t="n">
-        <v>1632.688211171978</v>
+        <v>2058.139146408717</v>
       </c>
       <c r="Y2" t="n">
-        <v>1632.688211171978</v>
+        <v>2058.139146408717</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966398</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155128</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542614</v>
       </c>
       <c r="E3" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488059</v>
       </c>
       <c r="F3" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756909</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182524</v>
+        <v>165.4432786182533</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057915</v>
+        <v>71.67401812058006</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J3" t="n">
         <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310613</v>
+        <v>298.3188265310615</v>
       </c>
       <c r="L3" t="n">
-        <v>815.114548125109</v>
+        <v>593.0223835625333</v>
       </c>
       <c r="M3" t="n">
-        <v>1178.376567084329</v>
+        <v>956.2844025217535</v>
       </c>
       <c r="N3" t="n">
-        <v>1565.661695681274</v>
+        <v>1343.569531118699</v>
       </c>
       <c r="O3" t="n">
-        <v>2199.840679460312</v>
+        <v>1884.562538506776</v>
       </c>
       <c r="P3" t="n">
-        <v>2447.023413292609</v>
+        <v>2447.02341329261</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="R3" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S3" t="n">
-        <v>2426.617474780096</v>
+        <v>2426.617474780097</v>
       </c>
       <c r="T3" t="n">
-        <v>2232.610846175226</v>
+        <v>2232.610846175227</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047139</v>
       </c>
       <c r="V3" t="n">
-        <v>1769.368633815395</v>
+        <v>1769.368633815396</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087195</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.279776881662</v>
       </c>
       <c r="Y3" t="n">
-        <v>1099.519478116707</v>
+        <v>1099.519478116708</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>685.1760210978775</v>
+        <v>1844.640184885123</v>
       </c>
       <c r="C4" t="n">
-        <v>516.2398381699707</v>
+        <v>1844.640184885123</v>
       </c>
       <c r="D4" t="n">
-        <v>366.1231987576349</v>
+        <v>1694.523545472787</v>
       </c>
       <c r="E4" t="n">
-        <v>366.1231987576349</v>
+        <v>1546.610451890394</v>
       </c>
       <c r="F4" t="n">
-        <v>219.2332512597245</v>
+        <v>1399.720504392484</v>
       </c>
       <c r="G4" t="n">
-        <v>51.24678656800311</v>
+        <v>1231.734039700762</v>
       </c>
       <c r="H4" t="n">
-        <v>51.24678656800311</v>
+        <v>1082.995141564268</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800311</v>
+        <v>977.1399948936617</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312199</v>
+        <v>1002.609167878781</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>1174.299679627706</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693234</v>
+        <v>1449.530858294982</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096587</v>
+        <v>1750.112669035317</v>
       </c>
       <c r="N4" t="n">
-        <v>1123.088724245823</v>
+        <v>2048.981932571482</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999035</v>
+        <v>2309.019775324693</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171024</v>
+        <v>2508.006390496683</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074497</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="R4" t="n">
-        <v>1553.565379784828</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S4" t="n">
-        <v>1356.936631944689</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="T4" t="n">
-        <v>1133.958151139425</v>
+        <v>2339.360847594892</v>
       </c>
       <c r="U4" t="n">
-        <v>1133.958151139425</v>
+        <v>2339.360847594892</v>
       </c>
       <c r="V4" t="n">
-        <v>1133.958151139425</v>
+        <v>2084.676359389005</v>
       </c>
       <c r="W4" t="n">
-        <v>1133.958151139425</v>
+        <v>2084.676359389005</v>
       </c>
       <c r="X4" t="n">
-        <v>905.9686002414077</v>
+        <v>2026.288649715362</v>
       </c>
       <c r="Y4" t="n">
-        <v>685.1760210978775</v>
+        <v>2026.288649715362</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>777.9561815953475</v>
+        <v>1213.292347699871</v>
       </c>
       <c r="C5" t="n">
-        <v>777.9561815953475</v>
+        <v>844.329830759459</v>
       </c>
       <c r="D5" t="n">
-        <v>777.9561815953475</v>
+        <v>844.329830759459</v>
       </c>
       <c r="E5" t="n">
-        <v>777.9561815953475</v>
+        <v>844.329830759459</v>
       </c>
       <c r="F5" t="n">
-        <v>366.9702768057399</v>
+        <v>433.3439259698515</v>
       </c>
       <c r="G5" t="n">
-        <v>355.3059305704328</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H5" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816082</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872922</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923563</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926626</v>
+        <v>2437.640120926627</v>
       </c>
       <c r="T5" t="n">
-        <v>2437.640120926626</v>
+        <v>2287.263222289367</v>
       </c>
       <c r="U5" t="n">
-        <v>2259.223999239931</v>
+        <v>2287.263222289367</v>
       </c>
       <c r="V5" t="n">
-        <v>1928.161111896361</v>
+        <v>1956.200334945797</v>
       </c>
       <c r="W5" t="n">
-        <v>1928.161111896361</v>
+        <v>1603.431679675683</v>
       </c>
       <c r="X5" t="n">
-        <v>1554.695353635281</v>
+        <v>1603.431679675683</v>
       </c>
       <c r="Y5" t="n">
-        <v>1164.556021659469</v>
+        <v>1213.292347699871</v>
       </c>
     </row>
     <row r="6">
@@ -4641,31 +4643,31 @@
         <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J6" t="n">
-        <v>238.4273302370161</v>
+        <v>238.4273302370162</v>
       </c>
       <c r="K6" t="n">
-        <v>496.0729413699638</v>
+        <v>614.5430248380223</v>
       </c>
       <c r="L6" t="n">
-        <v>790.7764984014354</v>
+        <v>909.2465818694941</v>
       </c>
       <c r="M6" t="n">
-        <v>1154.038517360656</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N6" t="n">
-        <v>1541.323645957601</v>
+        <v>1659.793729425659</v>
       </c>
       <c r="O6" t="n">
-        <v>2175.502629736639</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P6" t="n">
-        <v>2422.685363568936</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q6" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4699,40 +4701,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>623.0447030767627</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="C7" t="n">
-        <v>454.1085201488559</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="D7" t="n">
-        <v>303.9918807365201</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="E7" t="n">
-        <v>303.9918807365201</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F7" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="G7" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="H7" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312202</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
@@ -4747,28 +4749,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1337.233965749941</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="T7" t="n">
-        <v>1114.255484944676</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U7" t="n">
-        <v>1114.255484944676</v>
+        <v>927.7205539329318</v>
       </c>
       <c r="V7" t="n">
-        <v>1025.485747050533</v>
+        <v>673.036065727045</v>
       </c>
       <c r="W7" t="n">
-        <v>1025.485747050533</v>
+        <v>566.8424067918368</v>
       </c>
       <c r="X7" t="n">
-        <v>1025.485747050533</v>
+        <v>566.8424067918368</v>
       </c>
       <c r="Y7" t="n">
-        <v>804.6931679070025</v>
+        <v>346.0498276483066</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1979.06775675439</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="C8" t="n">
-        <v>1610.105239813978</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="D8" t="n">
-        <v>1251.839541207228</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="E8" t="n">
-        <v>866.0512886089837</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="F8" t="n">
-        <v>455.0653838193761</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G8" t="n">
-        <v>364.0957168234162</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H8" t="n">
-        <v>66.5121164321834</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.5121164321834</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K8" t="n">
-        <v>589.210621081055</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329463</v>
+        <v>795.7553530872924</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1220.470313923563</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939507</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136265</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520487</v>
+        <v>2353.593687005981</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794324</v>
+        <v>2100.012626270161</v>
       </c>
       <c r="V8" t="n">
-        <v>2755.806928794324</v>
+        <v>1987.738730134099</v>
       </c>
       <c r="W8" t="n">
-        <v>2755.806928794324</v>
+        <v>1634.970074863985</v>
       </c>
       <c r="X8" t="n">
-        <v>2755.806928794324</v>
+        <v>1634.970074863985</v>
       </c>
       <c r="Y8" t="n">
-        <v>2365.667596818512</v>
+        <v>1634.970074863985</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>238.4273302370162</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031478</v>
+        <v>423.1489515180662</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>717.8525085495379</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1081.114527508758</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1468.399656105703</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>657.6489837069648</v>
+        <v>619.0260187740846</v>
       </c>
       <c r="C10" t="n">
-        <v>657.6489837069648</v>
+        <v>450.0898358461777</v>
       </c>
       <c r="D10" t="n">
-        <v>507.5323442946291</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="E10" t="n">
-        <v>359.619250712236</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F10" t="n">
-        <v>212.7293032143256</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143256</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="H10" t="n">
-        <v>66.5121164321834</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="I10" t="n">
-        <v>66.5121164321834</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J10" t="n">
-        <v>111.6347488791189</v>
+        <v>76.71595955312202</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279952</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764914</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760404</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581905</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1617.076751502319</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1849.684251935978</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088492</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.46409084602</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1310.884232784815</v>
       </c>
       <c r="U10" t="n">
-        <v>1424.011591242373</v>
+        <v>1310.884232784815</v>
       </c>
       <c r="V10" t="n">
-        <v>1169.327103036486</v>
+        <v>1310.884232784815</v>
       </c>
       <c r="W10" t="n">
-        <v>1169.327103036486</v>
+        <v>1021.467062747854</v>
       </c>
       <c r="X10" t="n">
-        <v>941.3375521384683</v>
+        <v>1021.467062747854</v>
       </c>
       <c r="Y10" t="n">
-        <v>720.5449729949381</v>
+        <v>800.6744836043243</v>
       </c>
     </row>
     <row r="11">
@@ -5018,70 +5020,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111711</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M12" t="n">
-        <v>1072.713683962606</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="N12" t="n">
-        <v>1577.52840832642</v>
+        <v>1366.386875345992</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>1918.296605585279</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2341.919755080347</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>699.7311804011399</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C13" t="n">
-        <v>699.7311804011399</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="D13" t="n">
-        <v>549.6145409888042</v>
+        <v>584.5295404712656</v>
       </c>
       <c r="E13" t="n">
-        <v>549.6145409888042</v>
+        <v>436.6164468888725</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908938</v>
+        <v>289.7264993909621</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>289.7264993909621</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>881.3796452313796</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5264,61 +5266,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,28 +5351,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797189</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637307</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M15" t="n">
-        <v>1186.520756890282</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N15" t="n">
-        <v>1814.118720444889</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190824</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P15" t="n">
         <v>2319.799627685893</v>
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>950.1865537761984</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C16" t="n">
-        <v>847.644273983533</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D16" t="n">
-        <v>697.5276345711973</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E16" t="n">
-        <v>549.6145409888042</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1688.385853854707</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1398.968683817746</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>1170.979132919728</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y16" t="n">
-        <v>950.1865537761984</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="17">
@@ -5507,16 +5509,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5534,19 +5536,19 @@
         <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123003</v>
@@ -5577,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5588,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>184.7035232280589</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756266</v>
+        <v>184.7035232280589</v>
       </c>
       <c r="L18" t="n">
-        <v>671.2000270096656</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M18" t="n">
-        <v>1268.578514636218</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N18" t="n">
-        <v>1896.176478190824</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>801.6605733532801</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C19" t="n">
-        <v>632.7243904253733</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D19" t="n">
-        <v>632.7243904253733</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429802</v>
+        <v>113.9333885650331</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>113.9333885650331</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>113.9333885650331</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>113.9333885650331</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y19" t="n">
-        <v>801.6605733532801</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="20">
@@ -5729,31 +5731,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.3409563819251</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5762,37 +5764,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3081.170977615667</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C21" t="n">
-        <v>2906.71794833454</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D21" t="n">
-        <v>2757.783538673289</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>2598.546083667833</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
-        <v>2452.011525694718</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G21" t="n">
-        <v>2316.252859740626</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>2231.588527385792</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>2231.588527385792</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>2231.588527385792</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>2231.588527385792</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>2257.062161108198</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>2854.44064873475</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>3482.038612289356</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>4033.948342528643</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P21" t="n">
-        <v>4457.571492023711</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q21" t="n">
-        <v>4690.833152398594</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
-        <v>4690.833152398594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S21" t="n">
-        <v>4572.622366301207</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T21" t="n">
-        <v>4382.415660022981</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U21" t="n">
-        <v>4154.387578566166</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V21" t="n">
-        <v>3919.235470334423</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W21" t="n">
-        <v>3664.998113606222</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X21" t="n">
-        <v>3457.146613400689</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y21" t="n">
-        <v>3249.386314635735</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3260.450525729773</v>
+        <v>2939.372134388645</v>
       </c>
       <c r="C22" t="n">
-        <v>3091.514342801866</v>
+        <v>2770.435951460738</v>
       </c>
       <c r="D22" t="n">
-        <v>2941.397703389531</v>
+        <v>2620.319312048402</v>
       </c>
       <c r="E22" t="n">
-        <v>2793.484609807138</v>
+        <v>2620.319312048402</v>
       </c>
       <c r="F22" t="n">
-        <v>2646.594662309227</v>
+        <v>2620.319312048402</v>
       </c>
       <c r="G22" t="n">
-        <v>2479.398563024107</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="H22" t="n">
-        <v>2337.686731866305</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866305</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296629</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822168</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998108</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729143</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.430181389151</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098136</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671695</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R22" t="n">
-        <v>4690.833152398594</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S22" t="n">
-        <v>4690.833152398594</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T22" t="n">
-        <v>4471.231687421536</v>
+        <v>4221.331149328841</v>
       </c>
       <c r="U22" t="n">
-        <v>4182.156460765734</v>
+        <v>3932.255922673039</v>
       </c>
       <c r="V22" t="n">
-        <v>3952.308739740504</v>
+        <v>3677.571434467152</v>
       </c>
       <c r="W22" t="n">
-        <v>3662.891569703543</v>
+        <v>3388.154264430192</v>
       </c>
       <c r="X22" t="n">
-        <v>3662.891569703543</v>
+        <v>3160.164713532175</v>
       </c>
       <c r="Y22" t="n">
-        <v>3442.098990560013</v>
+        <v>2939.372134388645</v>
       </c>
     </row>
     <row r="23">
@@ -5975,40 +5977,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C24" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D24" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G24" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>2231.588527385791</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>2565.513299557012</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L24" t="n">
-        <v>3060.83890577277</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="M24" t="n">
-        <v>3602.972384395806</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N24" t="n">
-        <v>4230.570347950413</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>4230.570347950413</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>4654.193497445481</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>4654.193497445481</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S24" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T24" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U24" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V24" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W24" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X24" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y24" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="25">
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>800.6374272687974</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C25" t="n">
-        <v>631.7012443408905</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D25" t="n">
-        <v>631.7012443408905</v>
+        <v>261.8464821474266</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408905</v>
+        <v>113.9333885650335</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6169,28 +6171,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>1975.169680383432</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V25" t="n">
-        <v>1720.485192177545</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W25" t="n">
-        <v>1431.068022140585</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X25" t="n">
-        <v>1203.078471242567</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y25" t="n">
-        <v>982.2858920990371</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="26">
@@ -6212,22 +6214,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6248,25 +6250,25 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C27" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D27" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G27" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>2233.355914590558</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J27" t="n">
-        <v>2383.002557118213</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>2383.002557118213</v>
+        <v>448.1846595309957</v>
       </c>
       <c r="L27" t="n">
-        <v>2878.328163333972</v>
+        <v>943.5102657467545</v>
       </c>
       <c r="M27" t="n">
-        <v>3475.706650960524</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="N27" t="n">
-        <v>4103.304614515131</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O27" t="n">
-        <v>4655.214344754419</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P27" t="n">
-        <v>4690.833152398593</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q27" t="n">
-        <v>4690.833152398593</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S27" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T27" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U27" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V27" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W27" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X27" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y27" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="28">
@@ -6358,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>779.6143379232836</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782958</v>
@@ -6415,19 +6417,19 @@
         <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1726.157040139901</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1471.472551934014</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1182.055381897053</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>1182.055381897053</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>961.2628027535234</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6449,28 +6451,28 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
         <v>2950.898526355936</v>
@@ -6540,28 +6542,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>372.4964262156759</v>
       </c>
       <c r="L30" t="n">
-        <v>923.0670414349513</v>
+        <v>867.8220324314346</v>
       </c>
       <c r="M30" t="n">
-        <v>1373.553594266881</v>
+        <v>1465.200520057987</v>
       </c>
       <c r="N30" t="n">
-        <v>2001.151557821488</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>733.4550657171305</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C31" t="n">
-        <v>733.4550657171305</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D31" t="n">
-        <v>583.3384263047948</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E31" t="n">
-        <v>435.4253327224017</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F31" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G31" t="n">
-        <v>175.9033664000582</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
         <v>175.9033664000582</v>
@@ -6643,28 +6645,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>2197.062545487568</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1907.987318831765</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="V31" t="n">
-        <v>1653.302830625878</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W31" t="n">
-        <v>1363.885660588918</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X31" t="n">
-        <v>1135.8961096909</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y31" t="n">
-        <v>915.1035305473703</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="32">
@@ -6680,16 +6682,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
@@ -6701,7 +6703,7 @@
         <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332386</v>
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C33" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D33" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G33" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>2381.235169913446</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>2381.235169913446</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L33" t="n">
-        <v>2876.560776129205</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="M33" t="n">
-        <v>3473.939263755757</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="N33" t="n">
-        <v>3473.939263755757</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O33" t="n">
-        <v>4025.848993995044</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P33" t="n">
-        <v>4420.931837070598</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q33" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S33" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T33" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U33" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V33" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W33" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X33" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y33" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3160.179968880559</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C34" t="n">
-        <v>2991.243785952652</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D34" t="n">
-        <v>2841.127146540317</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E34" t="n">
-        <v>2693.214052957923</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F34" t="n">
-        <v>2546.324105460013</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G34" t="n">
-        <v>2379.128006174893</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S34" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T34" t="n">
-        <v>4623.787448650995</v>
+        <v>2338.476105524075</v>
       </c>
       <c r="U34" t="n">
-        <v>4334.712221995193</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V34" t="n">
-        <v>4080.027733789307</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W34" t="n">
-        <v>3790.610563752346</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X34" t="n">
-        <v>3562.621012854329</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y34" t="n">
-        <v>3341.828433710799</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="35">
@@ -6914,16 +6916,16 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6932,31 +6934,31 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192542</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311171</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398594</v>
@@ -6965,10 +6967,10 @@
         <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
         <v>3820.749612123003</v>
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3081.170977615667</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C36" t="n">
-        <v>2906.71794833454</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D36" t="n">
-        <v>2757.783538673289</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>2598.546083667833</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
-        <v>2452.011525694718</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G36" t="n">
-        <v>2316.252859740626</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>2231.588527385792</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>2231.588527385792</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J36" t="n">
-        <v>2381.235169913447</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>2715.159942084667</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>3210.485548300426</v>
+        <v>739.5354516872161</v>
       </c>
       <c r="M36" t="n">
-        <v>3807.864035926978</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N36" t="n">
-        <v>3997.308687575531</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O36" t="n">
-        <v>3997.308687575531</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P36" t="n">
-        <v>4420.931837070599</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q36" t="n">
-        <v>4654.193497445482</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
-        <v>4690.833152398594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S36" t="n">
-        <v>4572.622366301207</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T36" t="n">
-        <v>4382.415660022981</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U36" t="n">
-        <v>4154.387578566166</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V36" t="n">
-        <v>3919.235470334423</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W36" t="n">
-        <v>3664.998113606222</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X36" t="n">
-        <v>3457.146613400689</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y36" t="n">
-        <v>3249.386314635735</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="37">
@@ -7069,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>847.644273983533</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="C37" t="n">
-        <v>847.644273983533</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="D37" t="n">
-        <v>697.5276345711973</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E37" t="n">
-        <v>549.6145409888042</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797189</v>
@@ -7120,25 +7122,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854707</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V37" t="n">
-        <v>1688.385853854707</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W37" t="n">
-        <v>1478.07486885532</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X37" t="n">
-        <v>1250.085317957303</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y37" t="n">
-        <v>1029.292738813773</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="38">
@@ -7163,31 +7165,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7208,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7236,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,31 +7247,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>95.58405025273906</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>429.5088224239597</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L39" t="n">
-        <v>924.8344286397185</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M39" t="n">
-        <v>1522.21291626627</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N39" t="n">
-        <v>2149.810879820877</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="O39" t="n">
-        <v>2149.810879820877</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2389.155899672379</v>
       </c>
       <c r="Q39" t="n">
         <v>2516.421633107662</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>801.6918836311994</v>
+        <v>956.9553291057244</v>
       </c>
       <c r="C40" t="n">
-        <v>632.7557007032925</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D40" t="n">
-        <v>530.3315352860773</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E40" t="n">
-        <v>382.4184417036842</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F40" t="n">
-        <v>235.5284942057738</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>1876.803094014472</v>
       </c>
       <c r="W40" t="n">
-        <v>1211.329899359456</v>
+        <v>1587.385923977512</v>
       </c>
       <c r="X40" t="n">
-        <v>983.3403484614391</v>
+        <v>1359.396373079494</v>
       </c>
       <c r="Y40" t="n">
-        <v>983.3403484614391</v>
+        <v>1138.603793935964</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075811</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3081.170977615667</v>
+        <v>3081.170977615665</v>
       </c>
       <c r="C42" t="n">
-        <v>2906.71794833454</v>
+        <v>2906.717948334538</v>
       </c>
       <c r="D42" t="n">
-        <v>2757.783538673289</v>
+        <v>2757.783538673287</v>
       </c>
       <c r="E42" t="n">
-        <v>2598.546083667833</v>
+        <v>2598.546083667831</v>
       </c>
       <c r="F42" t="n">
-        <v>2452.011525694718</v>
+        <v>2452.011525694716</v>
       </c>
       <c r="G42" t="n">
-        <v>2316.252859740626</v>
+        <v>2316.252859740624</v>
       </c>
       <c r="H42" t="n">
-        <v>2231.588527385792</v>
+        <v>2231.58852738579</v>
       </c>
       <c r="I42" t="n">
-        <v>2231.588527385792</v>
+        <v>2231.58852738579</v>
       </c>
       <c r="J42" t="n">
-        <v>2231.588527385792</v>
+        <v>2381.235169913445</v>
       </c>
       <c r="K42" t="n">
-        <v>2565.513299557012</v>
+        <v>2381.235169913445</v>
       </c>
       <c r="L42" t="n">
-        <v>3060.838905772771</v>
+        <v>2876.560776129204</v>
       </c>
       <c r="M42" t="n">
-        <v>3445.398957336244</v>
+        <v>2876.560776129204</v>
       </c>
       <c r="N42" t="n">
-        <v>3445.398957336244</v>
+        <v>3504.158739683811</v>
       </c>
       <c r="O42" t="n">
-        <v>3997.308687575531</v>
+        <v>3997.30868757553</v>
       </c>
       <c r="P42" t="n">
-        <v>4420.931837070599</v>
+        <v>4420.931837070598</v>
       </c>
       <c r="Q42" t="n">
-        <v>4654.193497445482</v>
+        <v>4654.19349744548</v>
       </c>
       <c r="R42" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S42" t="n">
-        <v>4572.622366301207</v>
+        <v>4572.622366301205</v>
       </c>
       <c r="T42" t="n">
-        <v>4382.415660022981</v>
+        <v>4382.415660022979</v>
       </c>
       <c r="U42" t="n">
-        <v>4154.387578566166</v>
+        <v>4154.387578566164</v>
       </c>
       <c r="V42" t="n">
-        <v>3919.235470334423</v>
+        <v>3919.235470334421</v>
       </c>
       <c r="W42" t="n">
-        <v>3664.998113606222</v>
+        <v>3664.99811360622</v>
       </c>
       <c r="X42" t="n">
-        <v>3457.146613400689</v>
+        <v>3457.146613400687</v>
       </c>
       <c r="Y42" t="n">
-        <v>3249.386314635735</v>
+        <v>3249.386314635733</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3006.417838136244</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C43" t="n">
-        <v>2837.481655208337</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D43" t="n">
-        <v>2799.685872231729</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E43" t="n">
-        <v>2651.772778649336</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="F43" t="n">
-        <v>2504.882831151425</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="G43" t="n">
-        <v>2337.686731866305</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I43" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>4507.978318053499</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>4288.37685307644</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U43" t="n">
-        <v>3999.301626420638</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V43" t="n">
-        <v>3744.617138214751</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W43" t="n">
-        <v>3455.199968177791</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X43" t="n">
-        <v>3227.210417279774</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y43" t="n">
-        <v>3006.417838136244</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="44">
@@ -7625,7 +7627,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
         <v>1590.547811004713</v>
@@ -7634,10 +7636,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797189</v>
@@ -7646,13 +7648,13 @@
         <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
         <v>2206.558663014779</v>
@@ -7664,31 +7666,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7710,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7719,25 +7721,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M45" t="n">
-        <v>1072.713683962606</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O45" t="n">
         <v>1859.536823237711</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>727.9786782557277</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C46" t="n">
-        <v>559.0424953278208</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D46" t="n">
-        <v>408.925855915485</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E46" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797189</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>2009.937693195925</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>1720.862466540123</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V46" t="n">
-        <v>1466.177978334236</v>
+        <v>1561.54872342426</v>
       </c>
       <c r="W46" t="n">
-        <v>1176.760808297275</v>
+        <v>1272.131553387299</v>
       </c>
       <c r="X46" t="n">
-        <v>948.7712573992578</v>
+        <v>1272.131553387299</v>
       </c>
       <c r="Y46" t="n">
-        <v>727.9786782557277</v>
+        <v>1051.338974243769</v>
       </c>
     </row>
   </sheetData>
@@ -8061,7 +8063,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>224.3355197601778</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8070,16 +8072,16 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>305.1601501039158</v>
+        <v>211.0329012241566</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.9377812015499</v>
+        <v>20.93778120154985</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8295,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>73.66059580999774</v>
+        <v>193.3273467878346</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8307,16 +8309,16 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>305.1601501039158</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8526,10 +8528,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8544,16 +8546,16 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>193.3273467878343</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -10352,7 +10354,7 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>-1.477928890381008e-12</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -23422,19 +23424,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>27.60981118522909</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23482,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>184.0188038644575</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23650,19 +23652,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>65.72996410388916</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23671,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23710,7 +23712,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23719,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>72.11969353038612</v>
       </c>
     </row>
     <row r="17">
@@ -23887,13 +23889,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23902,13 +23904,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>61.35027805667497</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23956,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>105.096922705139</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24133,19 +24135,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>107.2784330767815</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24184,13 +24186,13 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>24.58839950885039</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24367,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>125.5054897610402</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24418,7 +24420,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>283.9159882634384</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24601,25 +24603,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24655,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>37.39347442234254</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24664,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24838,7 +24840,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24847,13 +24849,13 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>54.01843965608012</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24883,19 +24885,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>260.4525338942701</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25090,7 +25092,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>99.26785128072113</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856552</v>
@@ -25120,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>110.0033420516639</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25315,7 +25317,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>9.131767663158371</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25327,7 +25329,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856552</v>
@@ -25360,7 +25362,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25369,10 +25371,10 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>78.31512318719848</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25552,7 +25554,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>47.21554925516926</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25561,13 +25563,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25603,10 +25605,10 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>152.4862366927523</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25615,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25783,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>111.1976478713706</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>139.469330230033</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26020,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26038,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,25 +26070,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>32.15184655856211</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>60.19363748756484</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>745037.0325279784</v>
+        <v>750978.9600290492</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>732531.3793711289</v>
+        <v>732531.3793711287</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>732531.3793711289</v>
+        <v>732531.3793711287</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>732531.3793711289</v>
+        <v>732531.3793711287</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>732531.3793711289</v>
+        <v>732531.3793711287</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>732531.3793711289</v>
+        <v>732531.3793711287</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>732531.3793711287</v>
+        <v>732531.3793711289</v>
       </c>
     </row>
     <row r="15">
@@ -26317,25 +26319,25 @@
         <v>697885.5043846408</v>
       </c>
       <c r="D2" t="n">
-        <v>697885.5043846407</v>
+        <v>697885.5043846406</v>
       </c>
       <c r="E2" t="n">
-        <v>686074.6097365055</v>
+        <v>686074.6097365053</v>
       </c>
       <c r="F2" t="n">
-        <v>686074.6097365055</v>
+        <v>686074.6097365058</v>
       </c>
       <c r="G2" t="n">
+        <v>686074.6097365058</v>
+      </c>
+      <c r="H2" t="n">
         <v>686074.6097365057</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>686074.609736506</v>
       </c>
-      <c r="I2" t="n">
-        <v>686074.6097365055</v>
-      </c>
       <c r="J2" t="n">
-        <v>686074.6097365054</v>
+        <v>686074.6097365058</v>
       </c>
       <c r="K2" t="n">
         <v>686074.6097365057</v>
@@ -26344,16 +26346,16 @@
         <v>686074.6097365054</v>
       </c>
       <c r="M2" t="n">
-        <v>686074.6097365055</v>
+        <v>686074.6097365058</v>
       </c>
       <c r="N2" t="n">
-        <v>686074.6097365054</v>
+        <v>686074.6097365057</v>
       </c>
       <c r="O2" t="n">
+        <v>686074.6097365058</v>
+      </c>
+      <c r="P2" t="n">
         <v>686074.6097365057</v>
-      </c>
-      <c r="P2" t="n">
-        <v>686074.6097365055</v>
       </c>
     </row>
     <row r="3">
@@ -26369,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.1404403376</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073556</v>
+        <v>507485.4416245456</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,19 +26386,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099825</v>
+        <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819068</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551199</v>
+        <v>132607.2937289266</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26421,43 +26423,43 @@
         <v>131909.7268316249</v>
       </c>
       <c r="D4" t="n">
-        <v>86084.45926805868</v>
+        <v>131909.7268316249</v>
       </c>
       <c r="E4" t="n">
-        <v>6897.424496707312</v>
+        <v>6897.42449670736</v>
       </c>
       <c r="F4" t="n">
-        <v>6897.424496707312</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="G4" t="n">
+        <v>6897.424496707359</v>
+      </c>
+      <c r="H4" t="n">
         <v>6897.42449670736</v>
-      </c>
-      <c r="H4" t="n">
-        <v>6897.424496707361</v>
       </c>
       <c r="I4" t="n">
         <v>6897.42449670736</v>
       </c>
       <c r="J4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707361</v>
       </c>
       <c r="K4" t="n">
-        <v>6897.424496707328</v>
+        <v>6897.424496707361</v>
       </c>
       <c r="L4" t="n">
         <v>6897.424496707331</v>
       </c>
       <c r="M4" t="n">
-        <v>6897.424496707303</v>
+        <v>6897.424496707325</v>
       </c>
       <c r="N4" t="n">
-        <v>6897.424496707331</v>
+        <v>6897.42449670736</v>
       </c>
       <c r="O4" t="n">
-        <v>6897.424496707318</v>
+        <v>6897.424496707422</v>
       </c>
       <c r="P4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707359</v>
       </c>
     </row>
     <row r="5">
@@ -26467,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="D5" t="n">
-        <v>107933.9405613933</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-641713.7784627487</v>
+        <v>-641713.778462749</v>
       </c>
       <c r="C6" t="n">
         <v>473038.0051131712</v>
       </c>
       <c r="D6" t="n">
-        <v>311239.9641148512</v>
+        <v>473038.005113171</v>
       </c>
       <c r="E6" t="n">
-        <v>252642.1936085355</v>
+        <v>70569.21379134525</v>
       </c>
       <c r="F6" t="n">
+        <v>578054.6554158913</v>
+      </c>
+      <c r="G6" t="n">
+        <v>578054.6554158913</v>
+      </c>
+      <c r="H6" t="n">
         <v>578054.6554158912</v>
       </c>
-      <c r="G6" t="n">
+      <c r="I6" t="n">
+        <v>578054.6554158914</v>
+      </c>
+      <c r="J6" t="n">
+        <v>410449.4776059086</v>
+      </c>
+      <c r="K6" t="n">
         <v>578054.6554158912</v>
       </c>
-      <c r="H6" t="n">
-        <v>578054.6554158916</v>
-      </c>
-      <c r="I6" t="n">
+      <c r="L6" t="n">
         <v>578054.6554158911</v>
       </c>
-      <c r="J6" t="n">
-        <v>410449.4776059084</v>
-      </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
+        <v>445447.3616869648</v>
+      </c>
+      <c r="N6" t="n">
         <v>578054.6554158913</v>
       </c>
-      <c r="L6" t="n">
-        <v>529760.6854077004</v>
-      </c>
-      <c r="M6" t="n">
-        <v>492999.6274803791</v>
-      </c>
-      <c r="N6" t="n">
-        <v>578054.655415891</v>
-      </c>
       <c r="O6" t="n">
+        <v>578054.6554158913</v>
+      </c>
+      <c r="P6" t="n">
         <v>578054.6554158912</v>
-      </c>
-      <c r="P6" t="n">
-        <v>578054.6554158911</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,31 +26789,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022925</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26823,13 +26825,13 @@
         <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26957,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>155.7118084757589</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483759</v>
+        <v>433.9106082241344</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26978,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27009,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.8166233022537</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973561</v>
+        <v>532.1234559996091</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000392</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022537</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973563</v>
+        <v>532.1234559996094</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022537</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973561</v>
+        <v>532.1234559996091</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27397,7 +27399,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27439,10 +27441,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>5.275648320219943</v>
+        <v>180.1931889249163</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27534,16 +27536,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27552,10 +27554,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,10 +27584,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>19.50563953280121</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27594,16 +27596,16 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>167.905822812131</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27634,7 +27636,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,19 +27669,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>57.78505532934665</v>
       </c>
       <c r="U5" t="n">
-        <v>74.41328965863434</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,16 +27773,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27792,7 +27794,7 @@
         <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -27828,13 +27830,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>164.2556028086258</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>181.3912759907349</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27853,25 +27855,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>320.8617553274531</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27910,16 +27912,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>216.6011012954338</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,13 +28010,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>117.5649507868437</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>45.61586490231998</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28023,13 +28025,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983812</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,22 +28061,22 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -30463,7 +30465,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -31039,34 +31041,34 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
         <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J2" t="n">
         <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L2" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q2" t="n">
         <v>405.5015080147052</v>
@@ -31075,13 +31077,13 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
         <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,34 +31120,34 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H3" t="n">
         <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K3" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
         <v>256.4624964168761</v>
@@ -31154,10 +31156,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U3" t="n">
         <v>0.1321789941675764</v>
@@ -31203,19 +31205,19 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335771</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K4" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L4" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M4" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N4" t="n">
         <v>257.7559726067959</v>
@@ -31230,16 +31232,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S4" t="n">
         <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,7 +31278,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H5" t="n">
         <v>38.45624955336179</v>
@@ -31291,16 +31293,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N5" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P5" t="n">
         <v>539.9786897190645</v>
@@ -31312,7 +31314,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T5" t="n">
         <v>16.4376645838976</v>
@@ -31361,7 +31363,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31373,16 +31375,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O6" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q6" t="n">
         <v>256.4624964168761</v>
@@ -31440,7 +31442,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335771</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31467,7 +31469,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S7" t="n">
         <v>29.35413767523479</v>
@@ -31476,7 +31478,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681597</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844667</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003809</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623192</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574992</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095022</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099058</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746412</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781689</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806949</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752255</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138795</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233474</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837924</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970249</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002926</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987486</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898496</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J10" t="n">
-        <v>138.937596729739</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712214</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112294</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31841,37 +31843,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>641.2555750770849</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>316.2462973459355</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32078,37 +32080,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>556.7959610899863</v>
       </c>
       <c r="O15" t="n">
-        <v>225.4828684302374</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>216.857296338707</v>
       </c>
       <c r="K18" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>570.6116741576914</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>164.2853229338194</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>363.5371514786841</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32783,31 +32785,31 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>577.7447198439381</v>
       </c>
       <c r="M24" t="n">
-        <v>689.7436082887207</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
         <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
@@ -33020,13 +33022,13 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>344.6306853939237</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473073</v>
@@ -33035,19 +33037,19 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>169.9530009943049</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742439</v>
@@ -33260,31 +33262,31 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>268.1779244693582</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>597.1709559744727</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742439</v>
@@ -33503,25 +33505,25 @@
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>616.5397119226052</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>533.0479862785264</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q33" t="n">
         <v>375.5996128485291</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742439</v>
@@ -33652,7 +33654,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067226</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33740,22 +33742,22 @@
         <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>302.3396059822671</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>322.6999460717705</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>182.6892564418561</v>
@@ -33883,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>268.6704608606959</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>268.5330199802463</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>530.5785304507783</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>640.7275049411303</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>368.6279838366847</v>
+        <v>658.2124561388958</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34699,28 +34701,28 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q2" t="n">
         <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939904</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091742</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>186.5874962434849</v>
       </c>
       <c r="L3" t="n">
-        <v>522.015880398028</v>
+        <v>297.6803606378503</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>640.5848321000389</v>
+        <v>546.4575832202797</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235323</v>
+        <v>568.1422977634695</v>
       </c>
       <c r="Q3" t="n">
         <v>116.4807223308546</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K4" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N4" t="n">
         <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805403</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34936,19 +34938,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N5" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P5" t="n">
         <v>308.745693963795</v>
@@ -34957,7 +34959,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35015,28 +35017,28 @@
         <v>189.0712562313263</v>
       </c>
       <c r="K6" t="n">
-        <v>260.2480920534825</v>
+        <v>379.9148430313194</v>
       </c>
       <c r="L6" t="n">
         <v>297.6803606378502</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O6" t="n">
-        <v>640.5848321000389</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P6" t="n">
         <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R6" t="n">
-        <v>24.58388860977092</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,13 +35093,13 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K7" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M7" t="n">
         <v>303.6179906468033</v>
@@ -35106,13 +35108,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805403</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687125</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554004</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923319</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302265</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129113</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>508.053000888219</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193716</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037194</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222472</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597705</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340053</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013291</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004591</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525805</v>
+        <v>528.7520287839574</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127271</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.5784166130662</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443195</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701981</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934838</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675401</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226397</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451104</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789363</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396416</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193515</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,28 +35491,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>509.9138629937516</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>176.264523259914</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,25 +35728,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>425.454249006653</v>
       </c>
       <c r="O15" t="n">
-        <v>82.88662398579301</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193515</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>90.01966967204031</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>432.0572943778172</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>25.73094315394525</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>220.9409070342396</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36379,7 +36381,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,31 +36433,31 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>439.190340064064</v>
       </c>
       <c r="M24" t="n">
-        <v>547.6095743667024</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
         <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R24" t="n">
         <v>37.00975247789214</v>
@@ -36616,7 +36618,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,13 +36670,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>206.7892464195648</v>
       </c>
       <c r="L27" t="n">
         <v>500.3288951674331</v>
@@ -36683,19 +36685,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>35.97859357997467</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36838,7 +36840,7 @@
         <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902934</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
         <v>751.8584478193518</v>
@@ -36908,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>130.3364854949993</v>
       </c>
       <c r="L30" t="n">
         <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
-        <v>455.0369220524544</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37069,10 +37071,10 @@
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367756</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462675</v>
       </c>
       <c r="M32" t="n">
         <v>735.300110790295</v>
@@ -37151,25 +37153,25 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>477.985332142731</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>399.0735788641961</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q33" t="n">
         <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37300,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236316704</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37388,22 +37390,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>163.7852262023929</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>191.3582339884371</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>37.00975247789214</v>
@@ -37537,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367756</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>134.6960534463657</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>128.5512458942248</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37858,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>388.44449652876</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>498.1312604966859</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193515</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>237.2862717533515</v>
+        <v>526.8707440555626</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_10_34.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_10_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3043494.051272847</v>
+        <v>3039356.894022695</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283183</v>
       </c>
     </row>
     <row r="9">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>323.2089455706006</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247044</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -715,16 +715,16 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>169.0477797924967</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -819,7 +819,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -828,16 +828,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>30.09519610355542</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>57.80383257690615</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -898,25 +898,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>358.381489170195</v>
       </c>
       <c r="G5" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,16 +949,16 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>148.8731296508871</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -1068,10 +1068,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1104,22 +1104,22 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>105.1317223458561</v>
+        <v>23.94563726208596</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1135,25 +1135,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>286.5888679426066</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,22 +1186,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>111.1511571747011</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1296,7 +1296,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>102.9996081158924</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1308,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>142.8412861002819</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1353,10 +1353,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1372,7 +1372,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710085</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1530,25 +1530,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0.8253826161913524</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>112.6849016609948</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1782,10 +1782,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>146.4649598217087</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2007,22 +2007,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>19.91555826189057</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2238,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -2250,16 +2250,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>58.24570521548731</v>
+        <v>40.5342109554696</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2487,13 +2487,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>19.91555826189102</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>66.2562870115476</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2620,7 +2620,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2730,7 +2730,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428212</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2766,7 +2766,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053464</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2964,13 +2964,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3006,13 +3006,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>25.73194049497408</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>94.64226186542935</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3031,7 +3031,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3046,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3192,19 +3192,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>107.4021082756243</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673023</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3280,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187874</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3426,22 +3426,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>139.483705355054</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3669,10 +3669,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3681,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3717,10 +3717,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>220.6346102953139</v>
       </c>
       <c r="V40" t="n">
-        <v>99.6514066310757</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3745,7 +3745,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.6830416206816</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3906,19 +3906,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>26.05480806223588</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>172.026033500079</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4137,7 +4137,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -4146,7 +4146,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4155,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4194,16 +4194,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>191.9440058362632</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>32.57570591153986</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1671.539306344595</v>
+        <v>1270.78477319198</v>
       </c>
       <c r="C2" t="n">
-        <v>1302.576789404184</v>
+        <v>1270.78477319198</v>
       </c>
       <c r="D2" t="n">
-        <v>944.3110907974333</v>
+        <v>1270.78477319198</v>
       </c>
       <c r="E2" t="n">
-        <v>944.3110907974333</v>
+        <v>944.3110907974335</v>
       </c>
       <c r="F2" t="n">
-        <v>533.3251860078258</v>
+        <v>533.3251860078259</v>
       </c>
       <c r="G2" t="n">
         <v>117.6204357321147</v>
@@ -4327,10 +4327,10 @@
         <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
         <v>442.5171852816084</v>
@@ -4348,34 +4348,34 @@
         <v>2055.22848474084</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q2" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R2" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926627</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
         <v>2228.894479532451</v>
       </c>
       <c r="U2" t="n">
-        <v>2228.894479532451</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>2228.894479532451</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>2058.139146408717</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="X2" t="n">
-        <v>2058.139146408717</v>
+        <v>1270.78477319198</v>
       </c>
       <c r="Y2" t="n">
-        <v>2058.139146408717</v>
+        <v>1270.78477319198</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966398</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155128</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542614</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488059</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756909</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182533</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812058006</v>
+        <v>71.67401812057915</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
         <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310615</v>
+        <v>482.9033490193029</v>
       </c>
       <c r="L3" t="n">
-        <v>593.0223835625333</v>
+        <v>777.6069060507746</v>
       </c>
       <c r="M3" t="n">
-        <v>956.2844025217535</v>
+        <v>1140.868925009995</v>
       </c>
       <c r="N3" t="n">
-        <v>1343.569531118699</v>
+        <v>1528.15405360694</v>
       </c>
       <c r="O3" t="n">
-        <v>1884.562538506776</v>
+        <v>1860.224488783102</v>
       </c>
       <c r="P3" t="n">
-        <v>2447.02341329261</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400156</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R3" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S3" t="n">
-        <v>2426.617474780097</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T3" t="n">
-        <v>2232.610846175227</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047139</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
-        <v>1769.368633815396</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087195</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881662</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y3" t="n">
-        <v>1099.519478116708</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1844.640184885123</v>
+        <v>686.1991671823603</v>
       </c>
       <c r="C4" t="n">
-        <v>1844.640184885123</v>
+        <v>517.2629842544534</v>
       </c>
       <c r="D4" t="n">
-        <v>1694.523545472787</v>
+        <v>367.1463448421176</v>
       </c>
       <c r="E4" t="n">
-        <v>1546.610451890394</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="F4" t="n">
-        <v>1399.720504392484</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G4" t="n">
-        <v>1231.734039700762</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H4" t="n">
-        <v>1082.995141564268</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I4" t="n">
-        <v>977.1399948936617</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>1002.609167878781</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
-        <v>1174.299679627706</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>1449.530858294982</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M4" t="n">
-        <v>1750.112669035317</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N4" t="n">
-        <v>2048.981932571482</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>2309.019775324693</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>2508.006390496683</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
-        <v>2562.339328400156</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>2562.339328400156</v>
+        <v>1606.046932091108</v>
       </c>
       <c r="S4" t="n">
-        <v>2562.339328400156</v>
+        <v>1606.046932091108</v>
       </c>
       <c r="T4" t="n">
-        <v>2339.360847594892</v>
+        <v>1606.046932091108</v>
       </c>
       <c r="U4" t="n">
-        <v>2339.360847594892</v>
+        <v>1606.046932091108</v>
       </c>
       <c r="V4" t="n">
-        <v>2084.676359389005</v>
+        <v>1606.046932091108</v>
       </c>
       <c r="W4" t="n">
-        <v>2084.676359389005</v>
+        <v>1316.629762054147</v>
       </c>
       <c r="X4" t="n">
-        <v>2026.288649715362</v>
+        <v>1088.64021115613</v>
       </c>
       <c r="Y4" t="n">
-        <v>2026.288649715362</v>
+        <v>867.8476320126</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1213.292347699871</v>
+        <v>1585.174086820818</v>
       </c>
       <c r="C5" t="n">
-        <v>844.329830759459</v>
+        <v>1585.174086820818</v>
       </c>
       <c r="D5" t="n">
-        <v>844.329830759459</v>
+        <v>1585.174086820818</v>
       </c>
       <c r="E5" t="n">
-        <v>844.329830759459</v>
+        <v>1199.385834222574</v>
       </c>
       <c r="F5" t="n">
-        <v>433.3439259698515</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G5" t="n">
         <v>421.6795797345444</v>
@@ -4564,55 +4564,55 @@
         <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872922</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923563</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230818</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.228484740841</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926627</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>2287.263222289367</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U5" t="n">
-        <v>2287.263222289367</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V5" t="n">
-        <v>1956.200334945797</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="W5" t="n">
-        <v>1603.431679675683</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="X5" t="n">
-        <v>1603.431679675683</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="Y5" t="n">
-        <v>1213.292347699871</v>
+        <v>1585.174086820818</v>
       </c>
     </row>
     <row r="6">
@@ -4640,25 +4640,25 @@
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057902</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>238.4273302370162</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K6" t="n">
-        <v>614.5430248380223</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L6" t="n">
-        <v>909.2465818694941</v>
+        <v>909.2465818694943</v>
       </c>
       <c r="M6" t="n">
         <v>1272.508600828714</v>
       </c>
       <c r="N6" t="n">
-        <v>1659.793729425659</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O6" t="n">
         <v>1991.864164601821</v>
@@ -4701,49 +4701,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>346.0498276483066</v>
+        <v>981.8280128167645</v>
       </c>
       <c r="C7" t="n">
-        <v>346.0498276483066</v>
+        <v>812.8918298888576</v>
       </c>
       <c r="D7" t="n">
-        <v>346.0498276483066</v>
+        <v>662.7751904765219</v>
       </c>
       <c r="E7" t="n">
-        <v>198.1367340659135</v>
+        <v>514.8620968941287</v>
       </c>
       <c r="F7" t="n">
-        <v>51.24678656800313</v>
+        <v>367.9721493962184</v>
       </c>
       <c r="G7" t="n">
-        <v>51.24678656800313</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H7" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312202</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
@@ -4752,25 +4752,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1439.817372234359</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T7" t="n">
-        <v>1216.838891429094</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U7" t="n">
-        <v>927.7205539329318</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V7" t="n">
-        <v>673.036065727045</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="W7" t="n">
-        <v>566.8424067918368</v>
+        <v>1612.258607688552</v>
       </c>
       <c r="X7" t="n">
-        <v>566.8424067918368</v>
+        <v>1384.269056790534</v>
       </c>
       <c r="Y7" t="n">
-        <v>346.0498276483066</v>
+        <v>1163.476477647004</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1248.370234799863</v>
+        <v>728.3028554854573</v>
       </c>
       <c r="C8" t="n">
-        <v>1248.370234799863</v>
+        <v>359.3403385450455</v>
       </c>
       <c r="D8" t="n">
-        <v>1248.370234799863</v>
+        <v>69.85663355251364</v>
       </c>
       <c r="E8" t="n">
-        <v>1248.370234799863</v>
+        <v>69.85663355251364</v>
       </c>
       <c r="F8" t="n">
-        <v>837.3843300102556</v>
+        <v>62.91113280331017</v>
       </c>
       <c r="G8" t="n">
-        <v>421.6795797345444</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872924</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923563</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230818</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.228484740841</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2353.593687005981</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U8" t="n">
-        <v>2100.012626270161</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V8" t="n">
-        <v>1987.738730134099</v>
+        <v>2231.276441056585</v>
       </c>
       <c r="W8" t="n">
-        <v>1634.970074863985</v>
+        <v>1878.507785786471</v>
       </c>
       <c r="X8" t="n">
-        <v>1634.970074863985</v>
+        <v>1505.042027525391</v>
       </c>
       <c r="Y8" t="n">
-        <v>1634.970074863985</v>
+        <v>1114.902695549579</v>
       </c>
     </row>
     <row r="9">
@@ -4859,10 +4859,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D9" t="n">
         <v>607.9167021542605</v>
@@ -4871,37 +4871,37 @@
         <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756899</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G9" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057915</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
-        <v>238.4273302370162</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K9" t="n">
-        <v>423.1489515180662</v>
+        <v>560.1394111735141</v>
       </c>
       <c r="L9" t="n">
-        <v>717.8525085495379</v>
+        <v>854.8429682049857</v>
       </c>
       <c r="M9" t="n">
-        <v>1081.114527508758</v>
+        <v>1218.104987164206</v>
       </c>
       <c r="N9" t="n">
-        <v>1468.399656105703</v>
+        <v>1605.390115761151</v>
       </c>
       <c r="O9" t="n">
-        <v>1991.864164601821</v>
+        <v>1937.460550937313</v>
       </c>
       <c r="P9" t="n">
-        <v>2239.046898434118</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.339328400155</v>
@@ -4922,7 +4922,7 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X9" t="n">
         <v>1307.279776881661</v>
@@ -4938,40 +4938,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>619.0260187740846</v>
+        <v>809.3867773625714</v>
       </c>
       <c r="C10" t="n">
-        <v>450.0898358461777</v>
+        <v>640.4505944346645</v>
       </c>
       <c r="D10" t="n">
-        <v>346.0498276483066</v>
+        <v>490.3339550223287</v>
       </c>
       <c r="E10" t="n">
-        <v>198.1367340659135</v>
+        <v>342.4208614399356</v>
       </c>
       <c r="F10" t="n">
-        <v>51.24678656800313</v>
+        <v>195.5309139420253</v>
       </c>
       <c r="G10" t="n">
-        <v>51.24678656800313</v>
+        <v>195.5309139420253</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312202</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
@@ -4986,28 +4986,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1533.86271359008</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="T10" t="n">
-        <v>1310.884232784815</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="U10" t="n">
-        <v>1310.884232784815</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="V10" t="n">
-        <v>1310.884232784815</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="W10" t="n">
-        <v>1021.467062747854</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="X10" t="n">
-        <v>1021.467062747854</v>
+        <v>1211.827821336341</v>
       </c>
       <c r="Y10" t="n">
-        <v>800.6744836043243</v>
+        <v>991.0352421928111</v>
       </c>
     </row>
     <row r="11">
@@ -5023,7 +5023,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
         <v>1204.759558406469</v>
@@ -5035,55 +5035,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111711</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>738.7889117913853</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1366.386875345992</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>1918.296605585279</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2341.919755080347</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>734.6461798836013</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C13" t="n">
-        <v>734.6461798836013</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D13" t="n">
-        <v>584.5295404712656</v>
+        <v>261.8464821474266</v>
       </c>
       <c r="E13" t="n">
-        <v>436.6164468888725</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F13" t="n">
-        <v>289.7264993909621</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>289.7264993909621</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y13" t="n">
-        <v>916.2946447138411</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="14">
@@ -5272,13 +5272,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075811</v>
@@ -5287,25 +5287,25 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
         <v>4405.252601474784</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,31 +5351,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349511</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M15" t="n">
-        <v>923.0670414349511</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5509,16 +5509,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5527,25 +5527,25 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
         <v>4151.812499466573</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,34 +5588,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J18" t="n">
-        <v>184.7035232280589</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>184.7035232280589</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>680.0291294438176</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438176</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>580.8993044876688</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>411.9631215597619</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D19" t="n">
-        <v>261.8464821474262</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E19" t="n">
-        <v>113.9333885650331</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F19" t="n">
-        <v>113.9333885650331</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G19" t="n">
-        <v>113.9333885650331</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>113.9333885650331</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614387</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y19" t="n">
-        <v>762.5477693179085</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="20">
@@ -5743,43 +5743,43 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
         <v>4405.252601474784</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,34 +5825,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2939.372134388645</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>2770.435951460738</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D22" t="n">
-        <v>2620.319312048402</v>
+        <v>363.7369613277359</v>
       </c>
       <c r="E22" t="n">
-        <v>2620.319312048402</v>
+        <v>363.7369613277359</v>
       </c>
       <c r="F22" t="n">
-        <v>2620.319312048402</v>
+        <v>216.8470138298256</v>
       </c>
       <c r="G22" t="n">
-        <v>2561.485266376193</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H22" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>3932.255922673039</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>3677.571434467152</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>3388.154264430192</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>3160.164713532175</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>2939.372134388645</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5968,70 +5968,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192571</v>
+        <v>95.3409563819251</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075798</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,34 +6062,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J24" t="n">
         <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>245.2306927803938</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>680.0291294438171</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>580.8993044876693</v>
+        <v>916.3099000622266</v>
       </c>
       <c r="C25" t="n">
-        <v>411.9631215597624</v>
+        <v>747.3737171343197</v>
       </c>
       <c r="D25" t="n">
-        <v>261.8464821474266</v>
+        <v>597.2570777219839</v>
       </c>
       <c r="E25" t="n">
-        <v>113.9333885650335</v>
+        <v>449.3439841395908</v>
       </c>
       <c r="F25" t="n">
-        <v>93.81666304797187</v>
+        <v>302.4540366416804</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782958</v>
@@ -6171,28 +6171,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>2090.842153176861</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1836.157664970974</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1546.740494934014</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614391</v>
+        <v>1318.750944035996</v>
       </c>
       <c r="Y25" t="n">
-        <v>762.547769317909</v>
+        <v>1097.958364892466</v>
       </c>
     </row>
     <row r="26">
@@ -6214,22 +6214,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6250,25 +6250,25 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,34 +6299,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>448.1846595309957</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>943.5102657467545</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1540.888753373306</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1540.888753373306</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2092.798483612593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400717</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782958</v>
@@ -6414,22 +6414,22 @@
         <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703114</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6439,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6475,16 +6475,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6496,19 +6496,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6539,31 +6539,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>372.4964262156759</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>867.8220324314346</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1465.200520057987</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2092.798483612593</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2092.798483612593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1098.667160263526</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C31" t="n">
-        <v>929.7309773356194</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232836</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408905</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6645,28 +6645,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>2018.514925172274</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1729.097755135313</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X31" t="n">
-        <v>1501.108204237296</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y31" t="n">
-        <v>1280.315625093766</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="32">
@@ -6682,67 +6682,67 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,31 +6773,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>716.6687843969303</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>716.6687843969303</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>874.8686257536381</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>705.9324428257312</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D34" t="n">
-        <v>555.8158034133954</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E34" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782958</v>
@@ -6882,28 +6882,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>2338.476105524075</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>2049.400878868273</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>1794.716390662386</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1505.299220625425</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>1277.309669727408</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>1056.517090583878</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6916,70 +6916,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192503</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,34 +7010,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
-        <v>739.5354516872161</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1336.913939313768</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1964.511902868375</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>696.7084350851671</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>696.7084350851671</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D37" t="n">
-        <v>555.8158034133954</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E37" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F37" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797189</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782958</v>
@@ -7119,28 +7119,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S37" t="n">
-        <v>2379.917379832663</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T37" t="n">
-        <v>2160.315914855604</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U37" t="n">
-        <v>1871.240688199802</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>1616.556199993915</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>1327.139029956954</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>1099.149479058937</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>878.3568999154069</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7156,40 +7156,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7250,31 +7250,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>740.5562989961525</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1337.934786622704</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1965.532750177311</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1965.532750177311</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2389.155899672379</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>956.9553291057244</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C40" t="n">
-        <v>788.0191461778176</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D40" t="n">
-        <v>637.9025067654818</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E40" t="n">
-        <v>489.9894131830887</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F40" t="n">
-        <v>343.0994656851783</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1977.461080510508</v>
+        <v>1754.597837787969</v>
       </c>
       <c r="V40" t="n">
-        <v>1876.803094014472</v>
+        <v>1499.913349582082</v>
       </c>
       <c r="W40" t="n">
-        <v>1587.385923977512</v>
+        <v>1210.496179545122</v>
       </c>
       <c r="X40" t="n">
-        <v>1359.396373079494</v>
+        <v>982.5066286471044</v>
       </c>
       <c r="Y40" t="n">
-        <v>1138.603793935964</v>
+        <v>761.7140495035743</v>
       </c>
     </row>
     <row r="41">
@@ -7387,10 +7387,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004713</v>
@@ -7399,64 +7399,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3081.170977615665</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C42" t="n">
-        <v>2906.717948334538</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D42" t="n">
-        <v>2757.783538673287</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>2598.546083667831</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
-        <v>2452.011525694716</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G42" t="n">
-        <v>2316.252859740624</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>2231.58852738579</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>2231.58852738579</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>2381.235169913445</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>2381.235169913445</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>2876.560776129204</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>2876.560776129204</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>3504.158739683811</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>3997.30868757553</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>4420.931837070598</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>4654.19349744548</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S42" t="n">
-        <v>4572.622366301205</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T42" t="n">
-        <v>4382.415660022979</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U42" t="n">
-        <v>4154.387578566164</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V42" t="n">
-        <v>3919.235470334421</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W42" t="n">
-        <v>3664.99811360622</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X42" t="n">
-        <v>3457.146613400687</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y42" t="n">
-        <v>3249.386314635733</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>580.8993044876688</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C43" t="n">
-        <v>411.9631215597619</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D43" t="n">
-        <v>261.8464821474262</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E43" t="n">
-        <v>261.8464821474262</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F43" t="n">
-        <v>261.8464821474262</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396417</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W43" t="n">
-        <v>1211.329899359456</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X43" t="n">
-        <v>983.3403484614387</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y43" t="n">
-        <v>762.5477693179085</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="44">
@@ -7636,34 +7636,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7724,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>740.5562989961525</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1337.934786622704</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>869.6905094135296</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="C46" t="n">
-        <v>700.7543264856228</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D46" t="n">
-        <v>550.637687073287</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1561.54872342426</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1272.131553387299</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>1272.131553387299</v>
+        <v>1111.379442165859</v>
       </c>
       <c r="Y46" t="n">
-        <v>1051.338974243769</v>
+        <v>1111.379442165859</v>
       </c>
     </row>
   </sheetData>
@@ -8060,7 +8060,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>186.4490126143854</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8072,7 +8072,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>211.0329012241566</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154985</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8294,13 +8294,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>193.3273467878346</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>319.4183821282439</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8318,7 +8318,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154988</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8546,16 +8546,16 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3273467878343</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>265.0304328515151</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154988</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -10354,7 +10354,7 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>-1.477928890381008e-12</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -23418,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>145.6085800303778</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>27.60981118522909</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>72.11969353038612</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>61.35027805667497</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24126,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24138,13 +24138,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>107.2784330767815</v>
+        <v>124.9899273367992</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24375,13 +24375,13 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>125.5054897610402</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>99.26785128072125</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856552</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24618,7 +24618,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856552</v>
@@ -24654,7 +24654,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>57.22910392194191</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24852,13 +24852,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24894,13 +24894,13 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>260.4525338942701</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>191.8807364711616</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25080,19 +25080,19 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856552</v>
@@ -25122,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>110.0033420516639</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>57.22910392194188</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25314,22 +25314,22 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>9.131767663158371</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856552</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25557,10 +25557,10 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25605,10 +25605,10 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>65.54986409393024</v>
       </c>
       <c r="V40" t="n">
-        <v>152.4862366927523</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25794,19 +25794,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>139.469330230033</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>114.1584408891651</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26025,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26034,7 +26034,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26082,16 +26082,16 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>60.19363748756484</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>193.1339494774973</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>732531.3793711287</v>
+        <v>732531.3793711289</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>732531.3793711289</v>
+        <v>732531.3793711287</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>732531.3793711287</v>
+        <v>732531.3793711289</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>732531.3793711289</v>
+        <v>732531.3793711287</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>732531.3793711289</v>
+        <v>732531.3793711287</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>732531.3793711289</v>
+        <v>732531.3793711287</v>
       </c>
     </row>
     <row r="15">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>697885.5043846406</v>
+        <v>697885.5043846408</v>
       </c>
       <c r="C2" t="n">
-        <v>697885.5043846408</v>
+        <v>697885.5043846405</v>
       </c>
       <c r="D2" t="n">
-        <v>697885.5043846406</v>
+        <v>697885.5043846407</v>
       </c>
       <c r="E2" t="n">
-        <v>686074.6097365053</v>
+        <v>686074.6097365055</v>
       </c>
       <c r="F2" t="n">
-        <v>686074.6097365058</v>
+        <v>686074.6097365057</v>
       </c>
       <c r="G2" t="n">
-        <v>686074.6097365058</v>
+        <v>686074.6097365057</v>
       </c>
       <c r="H2" t="n">
         <v>686074.6097365057</v>
       </c>
       <c r="I2" t="n">
-        <v>686074.609736506</v>
+        <v>686074.6097365059</v>
       </c>
       <c r="J2" t="n">
-        <v>686074.6097365058</v>
+        <v>686074.6097365054</v>
       </c>
       <c r="K2" t="n">
+        <v>686074.6097365055</v>
+      </c>
+      <c r="L2" t="n">
+        <v>686074.6097365059</v>
+      </c>
+      <c r="M2" t="n">
         <v>686074.6097365057</v>
       </c>
-      <c r="L2" t="n">
+      <c r="N2" t="n">
+        <v>686074.6097365055</v>
+      </c>
+      <c r="O2" t="n">
         <v>686074.6097365054</v>
       </c>
-      <c r="M2" t="n">
-        <v>686074.6097365058</v>
-      </c>
-      <c r="N2" t="n">
-        <v>686074.6097365057</v>
-      </c>
-      <c r="O2" t="n">
-        <v>686074.6097365058</v>
-      </c>
       <c r="P2" t="n">
-        <v>686074.6097365057</v>
+        <v>686074.6097365054</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245456</v>
+        <v>507485.4416245461</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,10 +26386,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099826</v>
+        <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289266</v>
+        <v>132607.2937289267</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,25 +26417,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>131909.7268316249</v>
+        <v>131909.726831625</v>
       </c>
       <c r="C4" t="n">
-        <v>131909.7268316249</v>
+        <v>131909.726831625</v>
       </c>
       <c r="D4" t="n">
-        <v>131909.7268316249</v>
+        <v>131909.726831625</v>
       </c>
       <c r="E4" t="n">
+        <v>6897.424496707319</v>
+      </c>
+      <c r="F4" t="n">
+        <v>6897.424496707303</v>
+      </c>
+      <c r="G4" t="n">
         <v>6897.42449670736</v>
       </c>
-      <c r="F4" t="n">
-        <v>6897.424496707359</v>
-      </c>
-      <c r="G4" t="n">
-        <v>6897.424496707359</v>
-      </c>
       <c r="H4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707303</v>
       </c>
       <c r="I4" t="n">
         <v>6897.42449670736</v>
@@ -26444,22 +26444,22 @@
         <v>6897.424496707361</v>
       </c>
       <c r="K4" t="n">
+        <v>6897.42449670736</v>
+      </c>
+      <c r="L4" t="n">
         <v>6897.424496707361</v>
       </c>
-      <c r="L4" t="n">
-        <v>6897.424496707331</v>
-      </c>
       <c r="M4" t="n">
-        <v>6897.424496707325</v>
+        <v>6897.42449670736</v>
       </c>
       <c r="N4" t="n">
         <v>6897.42449670736</v>
       </c>
       <c r="O4" t="n">
-        <v>6897.424496707422</v>
+        <v>6897.42449670736</v>
       </c>
       <c r="P4" t="n">
-        <v>6897.424496707359</v>
+        <v>6897.42449670736</v>
       </c>
     </row>
     <row r="5">
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.77243984473</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.77243984473</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.77243984473</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-641713.778462749</v>
+        <v>-641713.7784627485</v>
       </c>
       <c r="C6" t="n">
-        <v>473038.0051131712</v>
+        <v>473038.0051131708</v>
       </c>
       <c r="D6" t="n">
-        <v>473038.005113171</v>
+        <v>473038.0051131711</v>
       </c>
       <c r="E6" t="n">
-        <v>70569.21379134525</v>
+        <v>70221.83453698808</v>
       </c>
       <c r="F6" t="n">
-        <v>578054.6554158913</v>
+        <v>577707.2761615342</v>
       </c>
       <c r="G6" t="n">
-        <v>578054.6554158913</v>
+        <v>577707.2761615342</v>
       </c>
       <c r="H6" t="n">
-        <v>578054.6554158912</v>
+        <v>577707.2761615342</v>
       </c>
       <c r="I6" t="n">
-        <v>578054.6554158914</v>
+        <v>577707.2761615345</v>
       </c>
       <c r="J6" t="n">
-        <v>410449.4776059086</v>
+        <v>410102.0983515515</v>
       </c>
       <c r="K6" t="n">
-        <v>578054.6554158912</v>
+        <v>577707.2761615341</v>
       </c>
       <c r="L6" t="n">
-        <v>578054.6554158911</v>
+        <v>577707.2761615345</v>
       </c>
       <c r="M6" t="n">
-        <v>445447.3616869648</v>
+        <v>445099.9824326075</v>
       </c>
       <c r="N6" t="n">
-        <v>578054.6554158913</v>
+        <v>577707.2761615341</v>
       </c>
       <c r="O6" t="n">
-        <v>578054.6554158913</v>
+        <v>577707.276161534</v>
       </c>
       <c r="P6" t="n">
-        <v>578054.6554158912</v>
+        <v>577707.276161534</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175394</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,40 +26789,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000391</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000391</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000391</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
+        <v>1172.708288099649</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1172.708288099649</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1172.708288099649</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1172.708288099649</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1172.708288099649</v>
+      </c>
+      <c r="J4" t="n">
         <v>1172.708288099648</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1172.708288099648</v>
-      </c>
-      <c r="G4" t="n">
-        <v>1172.708288099648</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1172.708288099648</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1172.708288099648</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
+        <v>1172.708288099649</v>
+      </c>
+      <c r="M4" t="n">
         <v>1172.708288099648</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175394</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241344</v>
+        <v>433.9106082241348</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000391</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996091</v>
+        <v>532.1234559996097</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000392</v>
+        <v>640.5848321000385</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996094</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000391</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996091</v>
+        <v>532.1234559996097</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>58.72142450166115</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27435,16 +27435,16 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>180.1931889249163</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27539,7 +27539,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27548,16 +27548,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>71.46237631601821</v>
       </c>
       <c r="S4" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>167.905822812131</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27618,19 +27618,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>48.49455657151645</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27669,16 +27669,16 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>57.78505532934665</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27773,13 +27773,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27788,10 +27788,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -27824,22 +27824,22 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>181.3912759907349</v>
+        <v>262.5773610745051</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27855,25 +27855,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>68.0941736780764</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,22 +27906,22 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>216.6011012954338</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28016,7 +28016,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>45.61586490231998</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28028,7 +28028,7 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>4.410223054846938</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -28058,13 +28058,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
         <v>286.2271541212006</v>
@@ -28073,10 +28073,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28092,7 +28092,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -30465,7 +30465,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -31041,34 +31041,34 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
         <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
-        <v>144.7659768979355</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
         <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857144</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767381</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730006</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342226</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190646</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
         <v>405.5015080147052</v>
@@ -31077,13 +31077,13 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T2" t="n">
         <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3004027793744848</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,34 +31120,34 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.009120711347161</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
         <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K3" t="n">
-        <v>324.4289352178439</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177245</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405676</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
         <v>256.4624964168761</v>
@@ -31156,10 +31156,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997903</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000174</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
         <v>0.1321789941675764</v>
@@ -31205,19 +31205,19 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335773</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K4" t="n">
-        <v>195.694251168232</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L4" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M4" t="n">
-        <v>264.0341136849628</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
         <v>257.7559726067959</v>
@@ -31232,16 +31232,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759588</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
         <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069563</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024988</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T5" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31360,10 +31360,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31372,34 +31372,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R6" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31442,7 +31442,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31457,10 +31457,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31469,16 +31469,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,7 +31515,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
         <v>38.45624955336179</v>
@@ -31530,16 +31530,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767381</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N8" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P8" t="n">
         <v>539.9786897190645</v>
@@ -31551,7 +31551,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T8" t="n">
         <v>16.4376645838976</v>
@@ -31600,7 +31600,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31612,16 +31612,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
         <v>256.4624964168761</v>
@@ -31679,7 +31679,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31706,7 +31706,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
         <v>29.35413767523479</v>
@@ -31715,7 +31715,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>316.2462973459355</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>337.5641188593843</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>556.7959610899863</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>216.857296338707</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>337.5641188593843</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,31 +32542,31 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>337.5641188593843</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>363.5371514786841</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32575,16 +32575,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32791,28 +32791,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>577.7447198439381</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742439</v>
@@ -33022,13 +33022,13 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>344.6306853939237</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473073</v>
@@ -33037,19 +33037,19 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742439</v>
@@ -33259,13 +33259,13 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>268.1779244693582</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473073</v>
@@ -33277,16 +33277,16 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742439</v>
@@ -33496,31 +33496,31 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>616.5397119226052</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33733,7 +33733,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33742,7 +33742,7 @@
         <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>302.3396059822671</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862122</v>
@@ -33751,7 +33751,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33760,7 +33760,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742439</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33976,37 +33976,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>268.5330199802463</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>640.7275049411303</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34450,37 +34450,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>658.2124561388958</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34701,28 +34701,28 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407339</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457279</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376316</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637951</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
         <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.2916633093991</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,22 +34777,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091745</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434849</v>
+        <v>373.0365088578702</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378503</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N3" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>546.4575832202797</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
         <v>568.1422977634695</v>
@@ -34801,7 +34801,7 @@
         <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>24.58388860977092</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870597</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K4" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
-        <v>303.6179906468034</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
         <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805406</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P5" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K6" t="n">
-        <v>379.9148430313194</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378502</v>
+        <v>617.098742766094</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667037</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K7" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L7" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M7" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O7" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35175,19 +35175,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N8" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P8" t="n">
         <v>308.745693963795</v>
@@ -35196,7 +35196,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K9" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L9" t="n">
         <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N9" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>528.7520287839574</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235323</v>
+        <v>514.7099619750473</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,13 +35330,13 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K10" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
         <v>303.6179906468033</v>
@@ -35345,13 +35345,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805406</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396416</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>176.264523259914</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,31 +35722,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>199.0097390795101</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>425.454249006653</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
-        <v>90.01966967204031</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>199.0097390795101</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,16 +36205,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>199.0097390795101</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>220.9409070342396</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36223,7 +36223,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36439,28 +36439,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>439.190340064064</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36618,7 +36618,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,13 +36670,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>206.7892464195648</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.3288951674331</v>
@@ -36685,19 +36685,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36855,7 +36855,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,13 +36907,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>130.3364854949993</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.3288951674331</v>
@@ -36925,16 +36925,16 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37074,7 +37074,7 @@
         <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462675</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
         <v>735.300110790295</v>
@@ -37144,31 +37144,31 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>477.985332142731</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,7 +37390,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>163.7852262023929</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37399,7 +37399,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37408,7 +37408,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>128.5512458942248</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>498.1312604966859</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>526.8707440555626</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_10_34.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_10_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3039356.894022695</v>
+        <v>3041117.424325482</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283183</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>323.2089455706006</v>
+        <v>323.2089455705997</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -828,10 +828,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>46.24467307253315</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -864,13 +864,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>30.09519610355542</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -879,10 +879,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -907,16 +907,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>358.381489170195</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>252.523995990888</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247052</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>85.36610313819088</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1113,10 +1113,10 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>23.94563726208596</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1132,22 +1132,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>286.5888679426066</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>183.768212010109</v>
       </c>
       <c r="G8" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1186,10 +1186,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1232,7 +1232,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1290,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1308,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>142.8412861002819</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>145.921906082165</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1372,7 +1372,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710085</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1530,22 +1530,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0.8253826161913524</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>41.74133133758713</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1776,13 +1776,13 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>83.06560892428212</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1858,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2007,7 +2007,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2016,10 +2016,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2241,25 +2241,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>40.5342109554696</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2487,13 +2487,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>66.2562870115476</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>239.7247859410132</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2730,7 +2730,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>160.1763464053464</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2955,22 +2955,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3006,13 +3006,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>214.0647808588581</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>94.64226186542935</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3031,7 +3031,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3043,7 +3043,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3204,7 +3204,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3243,7 +3243,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>228.9553704673023</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3426,7 +3426,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>133.3722917337063</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -3669,13 +3669,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3717,7 +3717,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>220.6346102953139</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3900,7 +3900,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>134.3542165280277</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -3918,7 +3918,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3954,7 +3954,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>172.026033500079</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4137,7 +4137,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -4146,16 +4146,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4191,7 +4191,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>239.7247859410132</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4200,10 +4200,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>32.57570591153986</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1270.78477319198</v>
+        <v>1270.784773191979</v>
       </c>
       <c r="C2" t="n">
-        <v>1270.78477319198</v>
+        <v>1270.784773191979</v>
       </c>
       <c r="D2" t="n">
-        <v>1270.78477319198</v>
+        <v>1270.784773191979</v>
       </c>
       <c r="E2" t="n">
         <v>944.3110907974335</v>
@@ -4327,16 +4327,16 @@
         <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872915</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4357,13 +4357,13 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926626</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T2" t="n">
-        <v>2228.894479532451</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U2" t="n">
-        <v>1975.31341879663</v>
+        <v>1975.313418796629</v>
       </c>
       <c r="V2" t="n">
         <v>1644.250531453059</v>
@@ -4372,10 +4372,10 @@
         <v>1644.250531453059</v>
       </c>
       <c r="X2" t="n">
-        <v>1270.78477319198</v>
+        <v>1270.784773191979</v>
       </c>
       <c r="Y2" t="n">
-        <v>1270.78477319198</v>
+        <v>1270.784773191979</v>
       </c>
     </row>
     <row r="3">
@@ -4385,52 +4385,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182524</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057915</v>
+        <v>71.67401812057875</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>482.9033490193029</v>
+        <v>575.6256845144202</v>
       </c>
       <c r="L3" t="n">
-        <v>777.6069060507746</v>
+        <v>870.3292415458918</v>
       </c>
       <c r="M3" t="n">
-        <v>1140.868925009995</v>
+        <v>1233.591260505112</v>
       </c>
       <c r="N3" t="n">
-        <v>1528.15405360694</v>
+        <v>1867.77024428415</v>
       </c>
       <c r="O3" t="n">
-        <v>1860.224488783102</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P3" t="n">
-        <v>2422.685363568936</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4442,16 +4442,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>686.1991671823603</v>
+        <v>711.8144409709059</v>
       </c>
       <c r="C4" t="n">
-        <v>517.2629842544534</v>
+        <v>542.8782580429991</v>
       </c>
       <c r="D4" t="n">
-        <v>367.1463448421176</v>
+        <v>392.7616186306633</v>
       </c>
       <c r="E4" t="n">
-        <v>219.2332512597245</v>
+        <v>244.8485250482702</v>
       </c>
       <c r="F4" t="n">
-        <v>219.2332512597245</v>
+        <v>97.95857755035982</v>
       </c>
       <c r="G4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K4" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1606.046932091108</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S4" t="n">
-        <v>1606.046932091108</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="T4" t="n">
-        <v>1606.046932091108</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U4" t="n">
-        <v>1606.046932091108</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="V4" t="n">
-        <v>1606.046932091108</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="W4" t="n">
-        <v>1316.629762054147</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="X4" t="n">
-        <v>1088.64021115613</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="Y4" t="n">
-        <v>867.8476320126</v>
+        <v>893.4629058011457</v>
       </c>
     </row>
     <row r="5">
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1585.174086820818</v>
+        <v>1585.174086820817</v>
       </c>
       <c r="C5" t="n">
-        <v>1585.174086820818</v>
+        <v>1585.174086820817</v>
       </c>
       <c r="D5" t="n">
-        <v>1585.174086820818</v>
+        <v>1585.174086820817</v>
       </c>
       <c r="E5" t="n">
-        <v>1199.385834222574</v>
+        <v>1199.385834222573</v>
       </c>
       <c r="F5" t="n">
-        <v>837.3843300102556</v>
+        <v>788.3999294329653</v>
       </c>
       <c r="G5" t="n">
-        <v>421.6795797345444</v>
+        <v>372.6951791572542</v>
       </c>
       <c r="H5" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800309</v>
       </c>
       <c r="J5" t="n">
         <v>187.5281822362817</v>
@@ -4576,43 +4576,43 @@
         <v>795.7553530872913</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230816</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740839</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764996</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723849</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926626</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T5" t="n">
-        <v>2228.89447953245</v>
+        <v>2228.894479532449</v>
       </c>
       <c r="U5" t="n">
-        <v>1975.31341879663</v>
+        <v>1975.313418796629</v>
       </c>
       <c r="V5" t="n">
-        <v>1975.31341879663</v>
+        <v>1975.313418796629</v>
       </c>
       <c r="W5" t="n">
-        <v>1975.31341879663</v>
+        <v>1975.313418796629</v>
       </c>
       <c r="X5" t="n">
-        <v>1975.31341879663</v>
+        <v>1975.313418796629</v>
       </c>
       <c r="Y5" t="n">
-        <v>1585.174086820818</v>
+        <v>1585.174086820817</v>
       </c>
     </row>
     <row r="6">
@@ -4622,49 +4622,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E6" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057902</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800309</v>
       </c>
       <c r="J6" t="n">
         <v>113.5972052500113</v>
       </c>
       <c r="K6" t="n">
-        <v>298.3188265310613</v>
+        <v>507.2413987429759</v>
       </c>
       <c r="L6" t="n">
-        <v>909.2465818694943</v>
+        <v>801.9449557744475</v>
       </c>
       <c r="M6" t="n">
-        <v>1272.508600828714</v>
+        <v>1165.206974733667</v>
       </c>
       <c r="N6" t="n">
-        <v>1659.79372942566</v>
+        <v>1552.492103330613</v>
       </c>
       <c r="O6" t="n">
-        <v>1991.864164601821</v>
+        <v>1884.562538506774</v>
       </c>
       <c r="P6" t="n">
-        <v>2239.046898434118</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4679,7 +4679,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4688,7 +4688,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>981.8280128167645</v>
+        <v>751.3310369968228</v>
       </c>
       <c r="C7" t="n">
-        <v>812.8918298888576</v>
+        <v>582.3948540689159</v>
       </c>
       <c r="D7" t="n">
-        <v>662.7751904765219</v>
+        <v>432.2782146565802</v>
       </c>
       <c r="E7" t="n">
-        <v>514.8620968941287</v>
+        <v>284.3651210741871</v>
       </c>
       <c r="F7" t="n">
-        <v>367.9721493962184</v>
+        <v>137.4751735762767</v>
       </c>
       <c r="G7" t="n">
-        <v>199.9856847044969</v>
+        <v>51.24678656800309</v>
       </c>
       <c r="H7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800309</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800309</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312193</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020475</v>
@@ -4761,16 +4761,16 @@
         <v>1636.446120074497</v>
       </c>
       <c r="V7" t="n">
-        <v>1636.446120074497</v>
+        <v>1381.76163186861</v>
       </c>
       <c r="W7" t="n">
-        <v>1612.258607688552</v>
+        <v>1381.76163186861</v>
       </c>
       <c r="X7" t="n">
-        <v>1384.269056790534</v>
+        <v>1153.772080970593</v>
       </c>
       <c r="Y7" t="n">
-        <v>1163.476477647004</v>
+        <v>932.9795018270626</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>728.3028554854573</v>
+        <v>652.5759934195819</v>
       </c>
       <c r="C8" t="n">
-        <v>359.3403385450455</v>
+        <v>652.5759934195819</v>
       </c>
       <c r="D8" t="n">
-        <v>69.85663355251364</v>
+        <v>652.5759934195819</v>
       </c>
       <c r="E8" t="n">
-        <v>69.85663355251364</v>
+        <v>652.5759934195819</v>
       </c>
       <c r="F8" t="n">
-        <v>62.91113280331017</v>
+        <v>466.9515368437142</v>
       </c>
       <c r="G8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="H8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="J8" t="n">
         <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816079</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872915</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230816</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740839</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764996</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723849</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400155</v>
+        <v>2353.593687005979</v>
       </c>
       <c r="U8" t="n">
-        <v>2562.339328400155</v>
+        <v>2100.012626270158</v>
       </c>
       <c r="V8" t="n">
-        <v>2231.276441056585</v>
+        <v>1768.949738926588</v>
       </c>
       <c r="W8" t="n">
-        <v>1878.507785786471</v>
+        <v>1416.181083656473</v>
       </c>
       <c r="X8" t="n">
-        <v>1505.042027525391</v>
+        <v>1042.715325395394</v>
       </c>
       <c r="Y8" t="n">
-        <v>1114.902695549579</v>
+        <v>652.5759934195819</v>
       </c>
     </row>
     <row r="9">
@@ -4859,46 +4859,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E9" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F9" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4432786182524</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057915</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500114</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K9" t="n">
-        <v>560.1394111735141</v>
+        <v>483.044112948947</v>
       </c>
       <c r="L9" t="n">
-        <v>854.8429682049857</v>
+        <v>1117.223096727985</v>
       </c>
       <c r="M9" t="n">
-        <v>1218.104987164206</v>
+        <v>1480.485115687205</v>
       </c>
       <c r="N9" t="n">
-        <v>1605.390115761151</v>
+        <v>1867.77024428415</v>
       </c>
       <c r="O9" t="n">
-        <v>1937.460550937313</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P9" t="n">
         <v>2447.023413292609</v>
@@ -4916,16 +4916,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4938,49 +4938,49 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>809.3867773625714</v>
+        <v>496.1664670606423</v>
       </c>
       <c r="C10" t="n">
-        <v>640.4505944346645</v>
+        <v>496.1664670606423</v>
       </c>
       <c r="D10" t="n">
-        <v>490.3339550223287</v>
+        <v>346.0498276483065</v>
       </c>
       <c r="E10" t="n">
-        <v>342.4208614399356</v>
+        <v>198.1367340659134</v>
       </c>
       <c r="F10" t="n">
-        <v>195.5309139420253</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="G10" t="n">
-        <v>195.5309139420253</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312193</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
@@ -4989,25 +4989,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1439.817372234359</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T10" t="n">
-        <v>1439.817372234359</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U10" t="n">
-        <v>1439.817372234359</v>
+        <v>1489.050255345037</v>
       </c>
       <c r="V10" t="n">
-        <v>1439.817372234359</v>
+        <v>1234.36576713915</v>
       </c>
       <c r="W10" t="n">
-        <v>1439.817372234359</v>
+        <v>944.9485971021898</v>
       </c>
       <c r="X10" t="n">
-        <v>1211.827821336341</v>
+        <v>716.9590462041724</v>
       </c>
       <c r="Y10" t="n">
-        <v>991.0352421928111</v>
+        <v>496.1664670606423</v>
       </c>
     </row>
     <row r="11">
@@ -5035,16 +5035,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5053,37 +5053,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,16 +5114,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
         <v>1074.481071167373</v>
@@ -5175,55 +5175,55 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>580.8993044876693</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C13" t="n">
-        <v>411.9631215597624</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="D13" t="n">
-        <v>261.8464821474266</v>
+        <v>430.7826650753331</v>
       </c>
       <c r="E13" t="n">
-        <v>261.0127623330919</v>
+        <v>282.8695714929399</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>135.9796239950296</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797189</v>
+        <v>135.9796239950296</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
         <v>2264.108249235165</v>
@@ -5241,10 +5241,10 @@
         <v>1211.329899359456</v>
       </c>
       <c r="X13" t="n">
-        <v>983.3403484614391</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y13" t="n">
-        <v>762.547769317909</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="14">
@@ -5269,43 +5269,43 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
         <v>4405.252601474784</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,25 +5351,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121648</v>
+        <v>198.027470314254</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270447</v>
+        <v>198.027470314254</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5497,28 +5497,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5527,37 +5527,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,25 +5588,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5746,40 +5746,40 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
         <v>4405.252601474784</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,25 +5825,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>513.8536007400717</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>363.7369613277359</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>363.7369613277359</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>216.8470138298256</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>175.9033664000583</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5968,37 +5968,37 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.3409563819251</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
         <v>2950.898526355937</v>
@@ -6007,31 +6007,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,16 +6062,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
         <v>1074.481071167373</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>916.3099000622266</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C25" t="n">
-        <v>747.3737171343197</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D25" t="n">
-        <v>597.2570777219839</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E25" t="n">
-        <v>449.3439841395908</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F25" t="n">
-        <v>302.4540366416804</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>2090.842153176861</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V25" t="n">
-        <v>1836.157664970974</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W25" t="n">
-        <v>1546.740494934014</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X25" t="n">
-        <v>1318.750944035996</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y25" t="n">
-        <v>1097.958364892466</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="26">
@@ -6214,7 +6214,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362687</v>
@@ -6223,13 +6223,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6238,16 +6238,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6302,13 +6302,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6384,52 +6384,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362683</v>
@@ -6460,13 +6460,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192598</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6475,16 +6475,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6496,19 +6496,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6539,13 +6539,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
         <v>1074.481071167373</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>707.672526468518</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C31" t="n">
-        <v>538.7363435406111</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D31" t="n">
-        <v>388.6197041282753</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E31" t="n">
-        <v>240.7066105458822</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F31" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W31" t="n">
-        <v>1338.103121340305</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X31" t="n">
-        <v>1110.113570442288</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y31" t="n">
-        <v>889.3209912987577</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="32">
@@ -6682,25 +6682,25 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
@@ -6712,37 +6712,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,16 +6773,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
         <v>1074.481071167373</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6928,28 +6928,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192503</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111703</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7013,13 +7013,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
         <v>1074.481071167373</v>
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
         <v>235.5284942057738</v>
@@ -7095,52 +7095,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7156,37 +7156,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.422291068009</v>
@@ -7250,13 +7250,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>580.0655846733346</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C40" t="n">
-        <v>411.1294017454277</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D40" t="n">
-        <v>261.0127623330919</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E40" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F40" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
         <v>93.81666304797187</v>
@@ -7332,52 +7332,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1754.597837787969</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1499.913349582082</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1210.496179545122</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>982.5066286471044</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>761.7140495035743</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7399,22 +7399,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7423,16 +7423,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7447,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7487,13 +7487,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
         <v>1074.481071167373</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1098.667160263526</v>
+        <v>983.3556038098237</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356194</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232836</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408905</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U43" t="n">
-        <v>2273.199413378161</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V43" t="n">
-        <v>2018.514925172274</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W43" t="n">
-        <v>1729.097755135313</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X43" t="n">
-        <v>1501.108204237296</v>
+        <v>1385.796647783593</v>
       </c>
       <c r="Y43" t="n">
-        <v>1280.315625093766</v>
+        <v>1165.004068640063</v>
       </c>
     </row>
     <row r="44">
@@ -7636,7 +7636,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362687</v>
@@ -7645,22 +7645,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.422291068009</v>
@@ -7724,13 +7724,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
         <v>1074.481071167373</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>929.7309773356194</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C46" t="n">
-        <v>929.7309773356194</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D46" t="n">
-        <v>779.6143379232836</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E46" t="n">
-        <v>631.7012443408905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X46" t="n">
-        <v>1111.379442165859</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y46" t="n">
-        <v>1111.379442165859</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>186.4490126143854</v>
+        <v>154.0169020165194</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8069,19 +8069,19 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>249.3877325071649</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8297,10 +8297,10 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>211.0329012241563</v>
       </c>
       <c r="L6" t="n">
-        <v>319.4183821282439</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8312,13 +8312,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154991</v>
+        <v>20.93778120154992</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8534,10 +8534,10 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>186.5911984019049</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>342.9044714621884</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8549,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>265.0304328515151</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.9377812015499</v>
+        <v>20.93778120154992</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23418,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>145.6085800303778</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>98.55338150863676</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23664,16 +23664,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>57.22910392194174</v>
+        <v>37.12601365260461</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23895,7 +23895,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23904,13 +23904,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24129,25 +24129,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>124.9899273367992</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24375,16 +24375,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>99.26785128072125</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,13 +24414,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>46.45968844823096</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24654,7 +24654,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>57.22910392194191</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24894,13 +24894,13 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>72.11969353038609</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>191.8807364711616</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25131,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>57.22910392194188</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25314,7 +25314,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>46.45968844823096</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25557,19 +25557,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25605,7 +25605,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>65.54986409393024</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25788,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>32.89260457060016</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -25842,7 +25842,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>114.1584408891651</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26025,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26034,16 +26034,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26079,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>46.45968844823096</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26088,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>193.1339494774973</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>732531.3793711289</v>
+        <v>732531.3793711287</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>732531.3793711289</v>
+        <v>732531.3793711287</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>732531.3793711287</v>
+        <v>732531.3793711289</v>
       </c>
     </row>
     <row r="12">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>732531.3793711289</v>
+        <v>732531.3793711287</v>
       </c>
     </row>
   </sheetData>
@@ -26316,46 +26316,46 @@
         <v>697885.5043846408</v>
       </c>
       <c r="C2" t="n">
-        <v>697885.5043846405</v>
+        <v>697885.5043846404</v>
       </c>
       <c r="D2" t="n">
-        <v>697885.5043846407</v>
+        <v>697885.5043846408</v>
       </c>
       <c r="E2" t="n">
         <v>686074.6097365055</v>
       </c>
       <c r="F2" t="n">
+        <v>686074.6097365055</v>
+      </c>
+      <c r="G2" t="n">
+        <v>686074.6097365055</v>
+      </c>
+      <c r="H2" t="n">
+        <v>686074.6097365054</v>
+      </c>
+      <c r="I2" t="n">
         <v>686074.6097365057</v>
       </c>
-      <c r="G2" t="n">
-        <v>686074.6097365057</v>
-      </c>
-      <c r="H2" t="n">
-        <v>686074.6097365057</v>
-      </c>
-      <c r="I2" t="n">
-        <v>686074.6097365059</v>
-      </c>
       <c r="J2" t="n">
-        <v>686074.6097365054</v>
+        <v>686074.6097365055</v>
       </c>
       <c r="K2" t="n">
         <v>686074.6097365055</v>
       </c>
       <c r="L2" t="n">
+        <v>686074.6097365053</v>
+      </c>
+      <c r="M2" t="n">
+        <v>686074.6097365055</v>
+      </c>
+      <c r="N2" t="n">
+        <v>686074.6097365057</v>
+      </c>
+      <c r="O2" t="n">
+        <v>686074.6097365055</v>
+      </c>
+      <c r="P2" t="n">
         <v>686074.6097365059</v>
-      </c>
-      <c r="M2" t="n">
-        <v>686074.6097365057</v>
-      </c>
-      <c r="N2" t="n">
-        <v>686074.6097365055</v>
-      </c>
-      <c r="O2" t="n">
-        <v>686074.6097365054</v>
-      </c>
-      <c r="P2" t="n">
-        <v>686074.6097365054</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.78357592</v>
+        <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289267</v>
+        <v>132607.2937289268</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,31 +26426,31 @@
         <v>131909.726831625</v>
       </c>
       <c r="E4" t="n">
-        <v>6897.424496707319</v>
+        <v>6897.42449670736</v>
       </c>
       <c r="F4" t="n">
-        <v>6897.424496707303</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="G4" t="n">
         <v>6897.42449670736</v>
       </c>
       <c r="H4" t="n">
-        <v>6897.424496707303</v>
+        <v>6897.42449670736</v>
       </c>
       <c r="I4" t="n">
+        <v>6897.424496707359</v>
+      </c>
+      <c r="J4" t="n">
         <v>6897.42449670736</v>
       </c>
-      <c r="J4" t="n">
-        <v>6897.424496707361</v>
-      </c>
       <c r="K4" t="n">
+        <v>6897.424496707359</v>
+      </c>
+      <c r="L4" t="n">
         <v>6897.42449670736</v>
       </c>
-      <c r="L4" t="n">
-        <v>6897.424496707361</v>
-      </c>
       <c r="M4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="N4" t="n">
         <v>6897.42449670736</v>
@@ -26475,7 +26475,7 @@
         <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984469</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-641713.7784627485</v>
+        <v>-641713.7784627483</v>
       </c>
       <c r="C6" t="n">
-        <v>473038.0051131708</v>
+        <v>473038.0051131707</v>
       </c>
       <c r="D6" t="n">
-        <v>473038.0051131711</v>
+        <v>473038.0051131712</v>
       </c>
       <c r="E6" t="n">
-        <v>70221.83453698808</v>
+        <v>70534.47586590931</v>
       </c>
       <c r="F6" t="n">
-        <v>577707.2761615342</v>
+        <v>578019.9174904554</v>
       </c>
       <c r="G6" t="n">
-        <v>577707.2761615342</v>
+        <v>578019.9174904554</v>
       </c>
       <c r="H6" t="n">
-        <v>577707.2761615342</v>
+        <v>578019.9174904553</v>
       </c>
       <c r="I6" t="n">
-        <v>577707.2761615345</v>
+        <v>578019.9174904556</v>
       </c>
       <c r="J6" t="n">
-        <v>410102.0983515515</v>
+        <v>410414.7396804728</v>
       </c>
       <c r="K6" t="n">
-        <v>577707.2761615341</v>
+        <v>578019.9174904554</v>
       </c>
       <c r="L6" t="n">
-        <v>577707.2761615345</v>
+        <v>578019.9174904552</v>
       </c>
       <c r="M6" t="n">
-        <v>445099.9824326075</v>
+        <v>445412.6237615285</v>
       </c>
       <c r="N6" t="n">
-        <v>577707.2761615341</v>
+        <v>578019.9174904556</v>
       </c>
       <c r="O6" t="n">
-        <v>577707.276161534</v>
+        <v>578019.9174904554</v>
       </c>
       <c r="P6" t="n">
-        <v>577707.276161534</v>
+        <v>578019.9174904558</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.064892117539</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.064892117539</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,28 +26789,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000386</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000385</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26819,7 +26819,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996097</v>
+        <v>532.1234559996099</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000385</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996095</v>
+        <v>532.1234559996099</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996097</v>
+        <v>532.1234559996099</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27387,7 +27387,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>58.72142450166115</v>
+        <v>58.72142450166206</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27548,13 +27548,13 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>120.061926972271</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -27584,13 +27584,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>71.46237631601821</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2271541212006</v>
@@ -27599,10 +27599,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27627,13 +27627,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>48.49455657151645</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>48.49455657151734</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27788,10 +27788,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>80.9404969066133</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -27833,10 +27833,10 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>262.5773610745051</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>68.0941736780764</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>223.1078337316025</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247052</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,10 +27906,10 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -28010,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28028,7 +28028,7 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>4.410223054846938</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -28061,19 +28061,19 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>140.3052480390356</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28092,7 +28092,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>-9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -31044,43 +31044,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L2" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T2" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31123,10 +31123,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31135,7 +31135,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M3" t="n">
         <v>509.0653662040588</v>
@@ -31144,25 +31144,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P3" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R3" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31205,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335771</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31220,10 +31220,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31235,13 +31235,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31281,7 +31281,7 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336177</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
@@ -31299,7 +31299,7 @@
         <v>659.3512441730003</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342222</v>
       </c>
       <c r="O5" t="n">
         <v>632.6811099166594</v>
@@ -31314,13 +31314,13 @@
         <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745095</v>
       </c>
       <c r="T5" t="n">
         <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744846</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,7 +31357,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347159</v>
       </c>
       <c r="H6" t="n">
         <v>19.4038763438002</v>
@@ -31369,22 +31369,22 @@
         <v>189.8178475575841</v>
       </c>
       <c r="K6" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178437</v>
       </c>
       <c r="L6" t="n">
         <v>436.2347404177243</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040587</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762072</v>
+        <v>522.538811676207</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405673</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378624</v>
       </c>
       <c r="Q6" t="n">
         <v>256.462496416876</v>
@@ -31436,7 +31436,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.684379313654579</v>
+        <v>1.684379313654578</v>
       </c>
       <c r="H7" t="n">
         <v>14.97566335231072</v>
@@ -31451,10 +31451,10 @@
         <v>195.6942511682319</v>
       </c>
       <c r="L7" t="n">
-        <v>250.4212663227908</v>
+        <v>250.4212663227907</v>
       </c>
       <c r="M7" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849626</v>
       </c>
       <c r="N7" t="n">
         <v>257.7559726067958</v>
@@ -31469,13 +31469,13 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759584</v>
       </c>
       <c r="S7" t="n">
         <v>29.35413767523478</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069561</v>
+        <v>7.19689343106956</v>
       </c>
       <c r="U7" t="n">
         <v>0.09187523529024984</v>
@@ -31518,46 +31518,46 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336177</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L8" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342222</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745095</v>
       </c>
       <c r="T8" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744846</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347159</v>
       </c>
       <c r="H9" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178437</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040587</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762072</v>
+        <v>522.538811676207</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405673</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378624</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R9" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,13 +31673,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.684379313654579</v>
+        <v>1.684379313654578</v>
       </c>
       <c r="H10" t="n">
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335771</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31688,16 +31688,16 @@
         <v>195.6942511682319</v>
       </c>
       <c r="L10" t="n">
-        <v>250.4212663227908</v>
+        <v>250.4212663227907</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849626</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31706,16 +31706,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759584</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069562</v>
+        <v>7.19689343106956</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>101.3076196007749</v>
@@ -31843,16 +31843,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
         <v>398.7616643558013</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
@@ -32080,19 +32080,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>337.5641188593843</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
@@ -32317,19 +32317,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>337.5641188593843</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32554,19 +32554,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>337.5641188593843</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32791,16 +32791,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
         <v>398.7616643558013</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,16 +33028,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
         <v>398.7616643558013</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33265,16 +33265,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
         <v>398.7616643558013</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33502,16 +33502,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
         <v>398.7616643558013</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33739,16 +33739,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
         <v>398.7616643558013</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33976,16 +33976,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
         <v>398.7616643558013</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34213,16 +34213,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
         <v>398.7616643558013</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34450,16 +34450,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
         <v>398.7616643558013</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K2" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P2" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,31 +34777,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091742</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K3" t="n">
-        <v>373.0365088578702</v>
+        <v>340.6043982600042</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="O3" t="n">
         <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>568.1422977634695</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308546</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977092</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34856,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K4" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L4" t="n">
         <v>278.0112915831069</v>
@@ -34868,7 +34868,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O4" t="n">
         <v>262.6644876295069</v>
@@ -34877,7 +34877,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805403</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34938,7 +34938,7 @@
         <v>137.6579754225036</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407336</v>
       </c>
       <c r="L5" t="n">
         <v>356.8062301067507</v>
@@ -34947,7 +34947,7 @@
         <v>429.0050109457276</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376313</v>
       </c>
       <c r="O5" t="n">
         <v>402.5828984949726</v>
@@ -34959,7 +34959,7 @@
         <v>183.1958181402556</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939898</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091739</v>
+        <v>62.98022089091737</v>
       </c>
       <c r="K6" t="n">
-        <v>186.5874962434848</v>
+        <v>397.6203974676411</v>
       </c>
       <c r="L6" t="n">
-        <v>617.098742766094</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M6" t="n">
         <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928739</v>
+        <v>391.1970995928738</v>
       </c>
       <c r="O6" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961229</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235322</v>
+        <v>568.1422977634693</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667036</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,7 +35093,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870591</v>
       </c>
       <c r="K7" t="n">
         <v>173.424759342349</v>
@@ -35102,7 +35102,7 @@
         <v>278.0112915831069</v>
       </c>
       <c r="M7" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468032</v>
       </c>
       <c r="N7" t="n">
         <v>301.8881449860244</v>
@@ -35111,7 +35111,7 @@
         <v>262.6644876295069</v>
       </c>
       <c r="P7" t="n">
-        <v>200.9965809818072</v>
+        <v>200.9965809818071</v>
       </c>
       <c r="Q7" t="n">
         <v>54.881755458054</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407336</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376313</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P8" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939898</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091742</v>
+        <v>62.98022089091737</v>
       </c>
       <c r="K9" t="n">
-        <v>451.0527332560634</v>
+        <v>373.1786946453897</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378502</v>
+        <v>640.5848321000385</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928739</v>
+        <v>391.1970995928738</v>
       </c>
       <c r="O9" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961229</v>
       </c>
       <c r="P9" t="n">
-        <v>514.7099619750473</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308546</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870591</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L10" t="n">
         <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468032</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O10" t="n">
         <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9965809818072</v>
+        <v>200.9965809818071</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805403</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35494,13 +35494,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
         <v>256.1654199113569</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35731,16 +35731,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>199.0097390795101</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,16 +35968,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>199.0097390795101</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,16 +36205,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>199.0097390795101</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,13 +36442,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
         <v>256.1654199113569</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,13 +36679,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
         <v>256.1654199113569</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,13 +36916,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
         <v>256.1654199113569</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,13 +37153,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
         <v>256.1654199113569</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,13 +37390,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
         <v>256.1654199113569</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,13 +37627,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
         <v>256.1654199113569</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,13 +37864,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
         <v>256.1654199113569</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,13 +38101,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
         <v>256.1654199113569</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
